--- a/PROJETS/ADN/L49/rapport_bi_mensuel/bat/template.xlsx
+++ b/PROJETS/ADN/L49/rapport_bi_mensuel/bat/template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -1861,44 +1861,59 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1906,6 +1921,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1930,74 +1999,179 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="9" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2038,9 +2212,6 @@
     <xf numFmtId="1" fontId="1" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2053,27 +2224,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2101,9 +2257,6 @@
     <xf numFmtId="44" fontId="0" fillId="10" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="11" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2113,157 +2266,49 @@
     <xf numFmtId="44" fontId="11" fillId="10" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="9" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2285,51 +2330,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3928,108 +3928,108 @@
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="137"/>
-      <c r="L2" s="137"/>
-      <c r="M2" s="137"/>
-      <c r="N2" s="138"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="115"/>
       <c r="O2" s="3"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="118"/>
-      <c r="M3" s="118"/>
-      <c r="N3" s="140"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="117"/>
+      <c r="N3" s="118"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="118"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="118"/>
-      <c r="M4" s="118"/>
-      <c r="N4" s="140"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="117"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="118"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="139"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="118"/>
-      <c r="F5" s="118"/>
-      <c r="G5" s="118"/>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
-      <c r="L5" s="118"/>
-      <c r="M5" s="118"/>
-      <c r="N5" s="140"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="118"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="139"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="118"/>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
-      <c r="L6" s="118"/>
-      <c r="M6" s="118"/>
-      <c r="N6" s="140"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="117"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="118"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="142"/>
-      <c r="K7" s="142"/>
-      <c r="L7" s="142"/>
-      <c r="M7" s="142"/>
-      <c r="N7" s="143"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="120"/>
+      <c r="M7" s="120"/>
+      <c r="N7" s="121"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
@@ -4053,153 +4053,153 @@
     </row>
     <row r="9" spans="1:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="144" t="s">
+      <c r="B9" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="145"/>
-      <c r="D9" s="145"/>
-      <c r="E9" s="145"/>
-      <c r="F9" s="145"/>
-      <c r="G9" s="145"/>
-      <c r="H9" s="145"/>
-      <c r="I9" s="145"/>
-      <c r="J9" s="145"/>
-      <c r="K9" s="145"/>
-      <c r="L9" s="145"/>
-      <c r="M9" s="145"/>
-      <c r="N9" s="145"/>
-      <c r="O9" s="146"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="123"/>
+      <c r="G9" s="123"/>
+      <c r="H9" s="123"/>
+      <c r="I9" s="123"/>
+      <c r="J9" s="123"/>
+      <c r="K9" s="123"/>
+      <c r="L9" s="123"/>
+      <c r="M9" s="123"/>
+      <c r="N9" s="123"/>
+      <c r="O9" s="124"/>
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="147" t="str">
+      <c r="B10" s="125" t="str">
         <f>IF(ISBLANK(Synthèse!B2),"",Synthèse!B2)</f>
         <v>OPP_4-6_LT_26165_LVON_002</v>
       </c>
-      <c r="C10" s="147"/>
-      <c r="D10" s="147"/>
-      <c r="E10" s="147"/>
-      <c r="F10" s="147"/>
-      <c r="G10" s="147"/>
-      <c r="H10" s="147"/>
-      <c r="I10" s="147"/>
-      <c r="J10" s="147"/>
-      <c r="K10" s="147"/>
-      <c r="L10" s="147"/>
-      <c r="M10" s="147"/>
-      <c r="N10" s="147"/>
-      <c r="O10" s="147"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="125"/>
+      <c r="K10" s="125"/>
+      <c r="L10" s="125"/>
+      <c r="M10" s="125"/>
+      <c r="N10" s="125"/>
+      <c r="O10" s="125"/>
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="148"/>
-      <c r="C11" s="148"/>
-      <c r="D11" s="148"/>
-      <c r="E11" s="148"/>
-      <c r="F11" s="148"/>
-      <c r="G11" s="148"/>
-      <c r="H11" s="148"/>
-      <c r="I11" s="148"/>
-      <c r="J11" s="148"/>
-      <c r="K11" s="148"/>
-      <c r="L11" s="148"/>
-      <c r="M11" s="148"/>
-      <c r="N11" s="148"/>
-      <c r="O11" s="148"/>
+      <c r="B11" s="126"/>
+      <c r="C11" s="126"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="126"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="126"/>
+      <c r="J11" s="126"/>
+      <c r="K11" s="126"/>
+      <c r="L11" s="126"/>
+      <c r="M11" s="126"/>
+      <c r="N11" s="126"/>
+      <c r="O11" s="126"/>
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="153" t="s">
+      <c r="B12" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="153"/>
-      <c r="D12" s="153"/>
-      <c r="E12" s="153"/>
-      <c r="F12" s="155" t="str">
+      <c r="C12" s="133"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="135" t="str">
         <f>IF(ISBLANK(Synthèse!C2),"",Synthèse!C2)</f>
         <v>COO_2018_LivronSurDrome_EnfouissementDeloche</v>
       </c>
-      <c r="G12" s="155"/>
-      <c r="H12" s="155"/>
-      <c r="I12" s="155"/>
-      <c r="J12" s="155"/>
-      <c r="K12" s="155"/>
-      <c r="L12" s="155"/>
-      <c r="M12" s="155"/>
-      <c r="N12" s="155"/>
-      <c r="O12" s="156"/>
+      <c r="G12" s="135"/>
+      <c r="H12" s="135"/>
+      <c r="I12" s="135"/>
+      <c r="J12" s="135"/>
+      <c r="K12" s="135"/>
+      <c r="L12" s="135"/>
+      <c r="M12" s="135"/>
+      <c r="N12" s="135"/>
+      <c r="O12" s="136"/>
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="154" t="s">
+      <c r="B13" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="154"/>
-      <c r="D13" s="154"/>
-      <c r="E13" s="154"/>
-      <c r="F13" s="157" t="str">
+      <c r="C13" s="134"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="137" t="str">
         <f>IF(ISBLANK(Synthèse!D2),"",Synthèse!D2)</f>
         <v>LIVRON-SUR-DROME</v>
       </c>
-      <c r="G13" s="157"/>
-      <c r="H13" s="157"/>
-      <c r="I13" s="157"/>
-      <c r="J13" s="157"/>
-      <c r="K13" s="157"/>
-      <c r="L13" s="157"/>
-      <c r="M13" s="157"/>
-      <c r="N13" s="157"/>
-      <c r="O13" s="158"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="137"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="137"/>
+      <c r="K13" s="137"/>
+      <c r="L13" s="137"/>
+      <c r="M13" s="137"/>
+      <c r="N13" s="137"/>
+      <c r="O13" s="138"/>
       <c r="P13" s="1"/>
     </row>
     <row r="14" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="154" t="s">
+      <c r="B14" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="154"/>
-      <c r="D14" s="154"/>
-      <c r="E14" s="154"/>
-      <c r="F14" s="126" t="str">
+      <c r="C14" s="134"/>
+      <c r="D14" s="134"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="131" t="str">
         <f>IF(ISBLANK(Synthèse!E2),"",Synthèse!E2)</f>
         <v>Depart Deloche - PS Loriol</v>
       </c>
-      <c r="G14" s="126"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="126"/>
-      <c r="J14" s="126"/>
-      <c r="K14" s="126"/>
-      <c r="L14" s="126"/>
-      <c r="M14" s="126"/>
-      <c r="N14" s="126"/>
-      <c r="O14" s="127"/>
+      <c r="G14" s="131"/>
+      <c r="H14" s="131"/>
+      <c r="I14" s="131"/>
+      <c r="J14" s="131"/>
+      <c r="K14" s="131"/>
+      <c r="L14" s="131"/>
+      <c r="M14" s="131"/>
+      <c r="N14" s="131"/>
+      <c r="O14" s="132"/>
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" s="149" t="s">
+      <c r="B15" s="127" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="150"/>
-      <c r="D15" s="150"/>
-      <c r="E15" s="151"/>
-      <c r="F15" s="152">
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="130">
         <f>IF(ISBLANK(Synthèse!N2),"",Synthèse!N2)</f>
         <v>3994</v>
       </c>
-      <c r="G15" s="126"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="126"/>
-      <c r="J15" s="126"/>
-      <c r="K15" s="126"/>
-      <c r="L15" s="126"/>
-      <c r="M15" s="126"/>
-      <c r="N15" s="126"/>
-      <c r="O15" s="127"/>
+      <c r="G15" s="131"/>
+      <c r="H15" s="131"/>
+      <c r="I15" s="131"/>
+      <c r="J15" s="131"/>
+      <c r="K15" s="131"/>
+      <c r="L15" s="131"/>
+      <c r="M15" s="131"/>
+      <c r="N15" s="131"/>
+      <c r="O15" s="132"/>
       <c r="P15" s="4"/>
     </row>
     <row r="16" spans="1:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4222,616 +4222,616 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="114"/>
-      <c r="C17" s="115"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="115"/>
-      <c r="K17" s="115"/>
-      <c r="L17" s="115"/>
-      <c r="M17" s="115"/>
-      <c r="N17" s="115"/>
-      <c r="O17" s="116"/>
+      <c r="B17" s="140"/>
+      <c r="C17" s="141"/>
+      <c r="D17" s="141"/>
+      <c r="E17" s="141"/>
+      <c r="F17" s="141"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="141"/>
+      <c r="I17" s="141"/>
+      <c r="J17" s="141"/>
+      <c r="K17" s="141"/>
+      <c r="L17" s="141"/>
+      <c r="M17" s="141"/>
+      <c r="N17" s="141"/>
+      <c r="O17" s="142"/>
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="117"/>
-      <c r="C18" s="118"/>
-      <c r="D18" s="118"/>
-      <c r="E18" s="118"/>
-      <c r="F18" s="118"/>
-      <c r="G18" s="118"/>
-      <c r="H18" s="118"/>
-      <c r="I18" s="118"/>
-      <c r="J18" s="118"/>
-      <c r="K18" s="118"/>
-      <c r="L18" s="118"/>
-      <c r="M18" s="118"/>
-      <c r="N18" s="118"/>
-      <c r="O18" s="119"/>
+      <c r="B18" s="143"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="117"/>
+      <c r="I18" s="117"/>
+      <c r="J18" s="117"/>
+      <c r="K18" s="117"/>
+      <c r="L18" s="117"/>
+      <c r="M18" s="117"/>
+      <c r="N18" s="117"/>
+      <c r="O18" s="144"/>
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="117"/>
-      <c r="C19" s="118"/>
-      <c r="D19" s="118"/>
-      <c r="E19" s="118"/>
-      <c r="F19" s="118"/>
-      <c r="G19" s="118"/>
-      <c r="H19" s="118"/>
-      <c r="I19" s="118"/>
-      <c r="J19" s="118"/>
-      <c r="K19" s="118"/>
-      <c r="L19" s="118"/>
-      <c r="M19" s="118"/>
-      <c r="N19" s="118"/>
-      <c r="O19" s="119"/>
+      <c r="B19" s="143"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="117"/>
+      <c r="I19" s="117"/>
+      <c r="J19" s="117"/>
+      <c r="K19" s="117"/>
+      <c r="L19" s="117"/>
+      <c r="M19" s="117"/>
+      <c r="N19" s="117"/>
+      <c r="O19" s="144"/>
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="117"/>
-      <c r="C20" s="118"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="118"/>
-      <c r="J20" s="118"/>
-      <c r="K20" s="118"/>
-      <c r="L20" s="118"/>
-      <c r="M20" s="118"/>
-      <c r="N20" s="118"/>
-      <c r="O20" s="119"/>
+      <c r="B20" s="143"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="117"/>
+      <c r="K20" s="117"/>
+      <c r="L20" s="117"/>
+      <c r="M20" s="117"/>
+      <c r="N20" s="117"/>
+      <c r="O20" s="144"/>
       <c r="P20" s="1"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="117"/>
-      <c r="C21" s="118"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="118"/>
-      <c r="J21" s="118"/>
-      <c r="K21" s="118"/>
-      <c r="L21" s="118"/>
-      <c r="M21" s="118"/>
-      <c r="N21" s="118"/>
-      <c r="O21" s="119"/>
+      <c r="B21" s="143"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="117"/>
+      <c r="I21" s="117"/>
+      <c r="J21" s="117"/>
+      <c r="K21" s="117"/>
+      <c r="L21" s="117"/>
+      <c r="M21" s="117"/>
+      <c r="N21" s="117"/>
+      <c r="O21" s="144"/>
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="117"/>
-      <c r="C22" s="118"/>
-      <c r="D22" s="118"/>
-      <c r="E22" s="118"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="118"/>
-      <c r="K22" s="118"/>
-      <c r="L22" s="118"/>
-      <c r="M22" s="118"/>
-      <c r="N22" s="118"/>
-      <c r="O22" s="119"/>
+      <c r="B22" s="143"/>
+      <c r="C22" s="117"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="117"/>
+      <c r="K22" s="117"/>
+      <c r="L22" s="117"/>
+      <c r="M22" s="117"/>
+      <c r="N22" s="117"/>
+      <c r="O22" s="144"/>
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="117"/>
-      <c r="C23" s="118"/>
-      <c r="D23" s="118"/>
-      <c r="E23" s="118"/>
-      <c r="F23" s="118"/>
-      <c r="G23" s="118"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="118"/>
-      <c r="J23" s="118"/>
-      <c r="K23" s="118"/>
-      <c r="L23" s="118"/>
-      <c r="M23" s="118"/>
-      <c r="N23" s="118"/>
-      <c r="O23" s="119"/>
+      <c r="B23" s="143"/>
+      <c r="C23" s="117"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="117"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="117"/>
+      <c r="K23" s="117"/>
+      <c r="L23" s="117"/>
+      <c r="M23" s="117"/>
+      <c r="N23" s="117"/>
+      <c r="O23" s="144"/>
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="117"/>
-      <c r="C24" s="118"/>
-      <c r="D24" s="118"/>
-      <c r="E24" s="118"/>
-      <c r="F24" s="118"/>
-      <c r="G24" s="118"/>
-      <c r="H24" s="118"/>
-      <c r="I24" s="118"/>
-      <c r="J24" s="118"/>
-      <c r="K24" s="118"/>
-      <c r="L24" s="118"/>
-      <c r="M24" s="118"/>
-      <c r="N24" s="118"/>
-      <c r="O24" s="119"/>
+      <c r="B24" s="143"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="117"/>
+      <c r="I24" s="117"/>
+      <c r="J24" s="117"/>
+      <c r="K24" s="117"/>
+      <c r="L24" s="117"/>
+      <c r="M24" s="117"/>
+      <c r="N24" s="117"/>
+      <c r="O24" s="144"/>
       <c r="P24" s="1"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="117"/>
-      <c r="C25" s="118"/>
-      <c r="D25" s="118"/>
-      <c r="E25" s="118"/>
-      <c r="F25" s="118"/>
-      <c r="G25" s="118"/>
-      <c r="H25" s="118"/>
-      <c r="I25" s="118"/>
-      <c r="J25" s="118"/>
-      <c r="K25" s="118"/>
-      <c r="L25" s="118"/>
-      <c r="M25" s="118"/>
-      <c r="N25" s="118"/>
-      <c r="O25" s="119"/>
+      <c r="B25" s="143"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="117"/>
+      <c r="G25" s="117"/>
+      <c r="H25" s="117"/>
+      <c r="I25" s="117"/>
+      <c r="J25" s="117"/>
+      <c r="K25" s="117"/>
+      <c r="L25" s="117"/>
+      <c r="M25" s="117"/>
+      <c r="N25" s="117"/>
+      <c r="O25" s="144"/>
       <c r="P25" s="1"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="117"/>
-      <c r="C26" s="118"/>
-      <c r="D26" s="118"/>
-      <c r="E26" s="118"/>
-      <c r="F26" s="118"/>
-      <c r="G26" s="118"/>
-      <c r="H26" s="118"/>
-      <c r="I26" s="118"/>
-      <c r="J26" s="118"/>
-      <c r="K26" s="118"/>
-      <c r="L26" s="118"/>
-      <c r="M26" s="118"/>
-      <c r="N26" s="118"/>
-      <c r="O26" s="119"/>
+      <c r="B26" s="143"/>
+      <c r="C26" s="117"/>
+      <c r="D26" s="117"/>
+      <c r="E26" s="117"/>
+      <c r="F26" s="117"/>
+      <c r="G26" s="117"/>
+      <c r="H26" s="117"/>
+      <c r="I26" s="117"/>
+      <c r="J26" s="117"/>
+      <c r="K26" s="117"/>
+      <c r="L26" s="117"/>
+      <c r="M26" s="117"/>
+      <c r="N26" s="117"/>
+      <c r="O26" s="144"/>
       <c r="P26" s="1"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="117"/>
-      <c r="C27" s="118"/>
-      <c r="D27" s="120"/>
-      <c r="E27" s="120"/>
-      <c r="F27" s="120"/>
-      <c r="G27" s="120"/>
-      <c r="H27" s="120"/>
-      <c r="I27" s="120"/>
-      <c r="J27" s="120"/>
-      <c r="K27" s="120"/>
-      <c r="L27" s="120"/>
-      <c r="M27" s="118"/>
-      <c r="N27" s="118"/>
-      <c r="O27" s="119"/>
+      <c r="B27" s="143"/>
+      <c r="C27" s="117"/>
+      <c r="D27" s="145"/>
+      <c r="E27" s="145"/>
+      <c r="F27" s="145"/>
+      <c r="G27" s="145"/>
+      <c r="H27" s="145"/>
+      <c r="I27" s="145"/>
+      <c r="J27" s="145"/>
+      <c r="K27" s="145"/>
+      <c r="L27" s="145"/>
+      <c r="M27" s="117"/>
+      <c r="N27" s="117"/>
+      <c r="O27" s="144"/>
       <c r="P27" s="1"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="117"/>
-      <c r="C28" s="118"/>
-      <c r="D28" s="120"/>
-      <c r="E28" s="120"/>
-      <c r="F28" s="120"/>
-      <c r="G28" s="120"/>
-      <c r="H28" s="120"/>
-      <c r="I28" s="120"/>
-      <c r="J28" s="120"/>
-      <c r="K28" s="120"/>
-      <c r="L28" s="120"/>
-      <c r="M28" s="118"/>
-      <c r="N28" s="118"/>
-      <c r="O28" s="119"/>
+      <c r="B28" s="143"/>
+      <c r="C28" s="117"/>
+      <c r="D28" s="145"/>
+      <c r="E28" s="145"/>
+      <c r="F28" s="145"/>
+      <c r="G28" s="145"/>
+      <c r="H28" s="145"/>
+      <c r="I28" s="145"/>
+      <c r="J28" s="145"/>
+      <c r="K28" s="145"/>
+      <c r="L28" s="145"/>
+      <c r="M28" s="117"/>
+      <c r="N28" s="117"/>
+      <c r="O28" s="144"/>
       <c r="P28" s="1"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="117"/>
-      <c r="C29" s="118"/>
-      <c r="D29" s="118"/>
-      <c r="E29" s="118"/>
-      <c r="F29" s="118"/>
-      <c r="G29" s="118"/>
-      <c r="H29" s="118"/>
-      <c r="I29" s="118"/>
-      <c r="J29" s="118"/>
-      <c r="K29" s="118"/>
-      <c r="L29" s="118"/>
-      <c r="M29" s="118"/>
-      <c r="N29" s="118"/>
-      <c r="O29" s="119"/>
+      <c r="B29" s="143"/>
+      <c r="C29" s="117"/>
+      <c r="D29" s="117"/>
+      <c r="E29" s="117"/>
+      <c r="F29" s="117"/>
+      <c r="G29" s="117"/>
+      <c r="H29" s="117"/>
+      <c r="I29" s="117"/>
+      <c r="J29" s="117"/>
+      <c r="K29" s="117"/>
+      <c r="L29" s="117"/>
+      <c r="M29" s="117"/>
+      <c r="N29" s="117"/>
+      <c r="O29" s="144"/>
       <c r="P29" s="1"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="117"/>
-      <c r="C30" s="118"/>
-      <c r="D30" s="118"/>
-      <c r="E30" s="118"/>
-      <c r="F30" s="118"/>
-      <c r="G30" s="118"/>
-      <c r="H30" s="118"/>
-      <c r="I30" s="118"/>
-      <c r="J30" s="118"/>
-      <c r="K30" s="118"/>
-      <c r="L30" s="118"/>
-      <c r="M30" s="118"/>
-      <c r="N30" s="118"/>
-      <c r="O30" s="119"/>
+      <c r="B30" s="143"/>
+      <c r="C30" s="117"/>
+      <c r="D30" s="117"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="117"/>
+      <c r="G30" s="117"/>
+      <c r="H30" s="117"/>
+      <c r="I30" s="117"/>
+      <c r="J30" s="117"/>
+      <c r="K30" s="117"/>
+      <c r="L30" s="117"/>
+      <c r="M30" s="117"/>
+      <c r="N30" s="117"/>
+      <c r="O30" s="144"/>
       <c r="P30" s="1"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="117"/>
-      <c r="C31" s="118"/>
-      <c r="D31" s="118"/>
-      <c r="E31" s="118"/>
-      <c r="F31" s="118"/>
-      <c r="G31" s="118"/>
-      <c r="H31" s="118"/>
-      <c r="I31" s="118"/>
-      <c r="J31" s="118"/>
-      <c r="K31" s="118"/>
-      <c r="L31" s="118"/>
-      <c r="M31" s="118"/>
-      <c r="N31" s="118"/>
-      <c r="O31" s="119"/>
+      <c r="B31" s="143"/>
+      <c r="C31" s="117"/>
+      <c r="D31" s="117"/>
+      <c r="E31" s="117"/>
+      <c r="F31" s="117"/>
+      <c r="G31" s="117"/>
+      <c r="H31" s="117"/>
+      <c r="I31" s="117"/>
+      <c r="J31" s="117"/>
+      <c r="K31" s="117"/>
+      <c r="L31" s="117"/>
+      <c r="M31" s="117"/>
+      <c r="N31" s="117"/>
+      <c r="O31" s="144"/>
       <c r="P31" s="1"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="117"/>
-      <c r="C32" s="118"/>
-      <c r="D32" s="118"/>
-      <c r="E32" s="118"/>
-      <c r="F32" s="118"/>
-      <c r="G32" s="118"/>
-      <c r="H32" s="118"/>
-      <c r="I32" s="118"/>
-      <c r="J32" s="118"/>
-      <c r="K32" s="118"/>
-      <c r="L32" s="118"/>
-      <c r="M32" s="118"/>
-      <c r="N32" s="118"/>
-      <c r="O32" s="119"/>
+      <c r="B32" s="143"/>
+      <c r="C32" s="117"/>
+      <c r="D32" s="117"/>
+      <c r="E32" s="117"/>
+      <c r="F32" s="117"/>
+      <c r="G32" s="117"/>
+      <c r="H32" s="117"/>
+      <c r="I32" s="117"/>
+      <c r="J32" s="117"/>
+      <c r="K32" s="117"/>
+      <c r="L32" s="117"/>
+      <c r="M32" s="117"/>
+      <c r="N32" s="117"/>
+      <c r="O32" s="144"/>
       <c r="P32" s="1"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="117"/>
-      <c r="C33" s="118"/>
-      <c r="D33" s="120"/>
-      <c r="E33" s="120"/>
-      <c r="F33" s="120"/>
-      <c r="G33" s="120"/>
-      <c r="H33" s="120"/>
-      <c r="I33" s="120"/>
-      <c r="J33" s="120"/>
-      <c r="K33" s="120"/>
-      <c r="L33" s="120"/>
-      <c r="M33" s="121"/>
-      <c r="N33" s="121"/>
-      <c r="O33" s="122"/>
+      <c r="B33" s="143"/>
+      <c r="C33" s="117"/>
+      <c r="D33" s="145"/>
+      <c r="E33" s="145"/>
+      <c r="F33" s="145"/>
+      <c r="G33" s="145"/>
+      <c r="H33" s="145"/>
+      <c r="I33" s="145"/>
+      <c r="J33" s="145"/>
+      <c r="K33" s="145"/>
+      <c r="L33" s="145"/>
+      <c r="M33" s="146"/>
+      <c r="N33" s="146"/>
+      <c r="O33" s="147"/>
       <c r="P33" s="1"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="117"/>
-      <c r="C34" s="118"/>
-      <c r="D34" s="120"/>
-      <c r="E34" s="120"/>
-      <c r="F34" s="120"/>
-      <c r="G34" s="120"/>
-      <c r="H34" s="120"/>
-      <c r="I34" s="120"/>
-      <c r="J34" s="120"/>
-      <c r="K34" s="120"/>
-      <c r="L34" s="120"/>
-      <c r="M34" s="121"/>
-      <c r="N34" s="121"/>
-      <c r="O34" s="122"/>
+      <c r="B34" s="143"/>
+      <c r="C34" s="117"/>
+      <c r="D34" s="145"/>
+      <c r="E34" s="145"/>
+      <c r="F34" s="145"/>
+      <c r="G34" s="145"/>
+      <c r="H34" s="145"/>
+      <c r="I34" s="145"/>
+      <c r="J34" s="145"/>
+      <c r="K34" s="145"/>
+      <c r="L34" s="145"/>
+      <c r="M34" s="146"/>
+      <c r="N34" s="146"/>
+      <c r="O34" s="147"/>
       <c r="P34" s="1"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="117"/>
-      <c r="C35" s="118"/>
-      <c r="D35" s="120"/>
-      <c r="E35" s="120"/>
-      <c r="F35" s="120"/>
-      <c r="G35" s="120"/>
-      <c r="H35" s="120"/>
-      <c r="I35" s="120"/>
-      <c r="J35" s="120"/>
-      <c r="K35" s="120"/>
-      <c r="L35" s="120"/>
-      <c r="M35" s="121"/>
-      <c r="N35" s="121"/>
-      <c r="O35" s="122"/>
+      <c r="B35" s="143"/>
+      <c r="C35" s="117"/>
+      <c r="D35" s="145"/>
+      <c r="E35" s="145"/>
+      <c r="F35" s="145"/>
+      <c r="G35" s="145"/>
+      <c r="H35" s="145"/>
+      <c r="I35" s="145"/>
+      <c r="J35" s="145"/>
+      <c r="K35" s="145"/>
+      <c r="L35" s="145"/>
+      <c r="M35" s="146"/>
+      <c r="N35" s="146"/>
+      <c r="O35" s="147"/>
       <c r="P35" s="1"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="117"/>
-      <c r="C36" s="118"/>
-      <c r="D36" s="118"/>
-      <c r="E36" s="118"/>
-      <c r="F36" s="118"/>
-      <c r="G36" s="118"/>
-      <c r="H36" s="118"/>
-      <c r="I36" s="118"/>
-      <c r="J36" s="118"/>
-      <c r="K36" s="118"/>
-      <c r="L36" s="118"/>
-      <c r="M36" s="118"/>
-      <c r="N36" s="118"/>
-      <c r="O36" s="119"/>
+      <c r="B36" s="143"/>
+      <c r="C36" s="117"/>
+      <c r="D36" s="117"/>
+      <c r="E36" s="117"/>
+      <c r="F36" s="117"/>
+      <c r="G36" s="117"/>
+      <c r="H36" s="117"/>
+      <c r="I36" s="117"/>
+      <c r="J36" s="117"/>
+      <c r="K36" s="117"/>
+      <c r="L36" s="117"/>
+      <c r="M36" s="117"/>
+      <c r="N36" s="117"/>
+      <c r="O36" s="144"/>
       <c r="P36" s="1"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="117"/>
-      <c r="C37" s="118"/>
-      <c r="D37" s="118"/>
-      <c r="E37" s="118"/>
-      <c r="F37" s="118"/>
-      <c r="G37" s="118"/>
-      <c r="H37" s="118"/>
-      <c r="I37" s="118"/>
-      <c r="J37" s="118"/>
-      <c r="K37" s="118"/>
-      <c r="L37" s="118"/>
-      <c r="M37" s="118"/>
-      <c r="N37" s="118"/>
-      <c r="O37" s="119"/>
+      <c r="B37" s="143"/>
+      <c r="C37" s="117"/>
+      <c r="D37" s="117"/>
+      <c r="E37" s="117"/>
+      <c r="F37" s="117"/>
+      <c r="G37" s="117"/>
+      <c r="H37" s="117"/>
+      <c r="I37" s="117"/>
+      <c r="J37" s="117"/>
+      <c r="K37" s="117"/>
+      <c r="L37" s="117"/>
+      <c r="M37" s="117"/>
+      <c r="N37" s="117"/>
+      <c r="O37" s="144"/>
       <c r="P37" s="1"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="117"/>
-      <c r="C38" s="118"/>
-      <c r="D38" s="118"/>
-      <c r="E38" s="118"/>
-      <c r="F38" s="118"/>
-      <c r="G38" s="118"/>
-      <c r="H38" s="118"/>
-      <c r="I38" s="118"/>
-      <c r="J38" s="118"/>
-      <c r="K38" s="118"/>
-      <c r="L38" s="118"/>
-      <c r="M38" s="118"/>
-      <c r="N38" s="118"/>
-      <c r="O38" s="119"/>
+      <c r="B38" s="143"/>
+      <c r="C38" s="117"/>
+      <c r="D38" s="117"/>
+      <c r="E38" s="117"/>
+      <c r="F38" s="117"/>
+      <c r="G38" s="117"/>
+      <c r="H38" s="117"/>
+      <c r="I38" s="117"/>
+      <c r="J38" s="117"/>
+      <c r="K38" s="117"/>
+      <c r="L38" s="117"/>
+      <c r="M38" s="117"/>
+      <c r="N38" s="117"/>
+      <c r="O38" s="144"/>
       <c r="P38" s="1"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="117"/>
-      <c r="C39" s="118"/>
-      <c r="D39" s="118"/>
-      <c r="E39" s="118"/>
-      <c r="F39" s="118"/>
-      <c r="G39" s="118"/>
-      <c r="H39" s="118"/>
-      <c r="I39" s="118"/>
-      <c r="J39" s="118"/>
-      <c r="K39" s="118"/>
-      <c r="L39" s="118"/>
-      <c r="M39" s="118"/>
-      <c r="N39" s="118"/>
-      <c r="O39" s="119"/>
+      <c r="B39" s="143"/>
+      <c r="C39" s="117"/>
+      <c r="D39" s="117"/>
+      <c r="E39" s="117"/>
+      <c r="F39" s="117"/>
+      <c r="G39" s="117"/>
+      <c r="H39" s="117"/>
+      <c r="I39" s="117"/>
+      <c r="J39" s="117"/>
+      <c r="K39" s="117"/>
+      <c r="L39" s="117"/>
+      <c r="M39" s="117"/>
+      <c r="N39" s="117"/>
+      <c r="O39" s="144"/>
       <c r="P39" s="1"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="117"/>
-      <c r="C40" s="118"/>
-      <c r="D40" s="118"/>
-      <c r="E40" s="118"/>
-      <c r="F40" s="118"/>
-      <c r="G40" s="118"/>
-      <c r="H40" s="118"/>
-      <c r="I40" s="118"/>
-      <c r="J40" s="118"/>
-      <c r="K40" s="118"/>
-      <c r="L40" s="118"/>
-      <c r="M40" s="118"/>
-      <c r="N40" s="118"/>
-      <c r="O40" s="119"/>
+      <c r="B40" s="143"/>
+      <c r="C40" s="117"/>
+      <c r="D40" s="117"/>
+      <c r="E40" s="117"/>
+      <c r="F40" s="117"/>
+      <c r="G40" s="117"/>
+      <c r="H40" s="117"/>
+      <c r="I40" s="117"/>
+      <c r="J40" s="117"/>
+      <c r="K40" s="117"/>
+      <c r="L40" s="117"/>
+      <c r="M40" s="117"/>
+      <c r="N40" s="117"/>
+      <c r="O40" s="144"/>
       <c r="P40" s="1"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="117"/>
-      <c r="C41" s="118"/>
-      <c r="D41" s="118"/>
-      <c r="E41" s="118"/>
-      <c r="F41" s="118"/>
-      <c r="G41" s="118"/>
-      <c r="H41" s="118"/>
-      <c r="I41" s="118"/>
-      <c r="J41" s="118"/>
-      <c r="K41" s="118"/>
-      <c r="L41" s="118"/>
-      <c r="M41" s="118"/>
-      <c r="N41" s="118"/>
-      <c r="O41" s="119"/>
+      <c r="B41" s="143"/>
+      <c r="C41" s="117"/>
+      <c r="D41" s="117"/>
+      <c r="E41" s="117"/>
+      <c r="F41" s="117"/>
+      <c r="G41" s="117"/>
+      <c r="H41" s="117"/>
+      <c r="I41" s="117"/>
+      <c r="J41" s="117"/>
+      <c r="K41" s="117"/>
+      <c r="L41" s="117"/>
+      <c r="M41" s="117"/>
+      <c r="N41" s="117"/>
+      <c r="O41" s="144"/>
       <c r="P41" s="1"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="117"/>
-      <c r="C42" s="118"/>
-      <c r="D42" s="118"/>
-      <c r="E42" s="118"/>
-      <c r="F42" s="118"/>
-      <c r="G42" s="118"/>
-      <c r="H42" s="118"/>
-      <c r="I42" s="118"/>
-      <c r="J42" s="118"/>
-      <c r="K42" s="118"/>
-      <c r="L42" s="118"/>
-      <c r="M42" s="118"/>
-      <c r="N42" s="118"/>
-      <c r="O42" s="119"/>
+      <c r="B42" s="143"/>
+      <c r="C42" s="117"/>
+      <c r="D42" s="117"/>
+      <c r="E42" s="117"/>
+      <c r="F42" s="117"/>
+      <c r="G42" s="117"/>
+      <c r="H42" s="117"/>
+      <c r="I42" s="117"/>
+      <c r="J42" s="117"/>
+      <c r="K42" s="117"/>
+      <c r="L42" s="117"/>
+      <c r="M42" s="117"/>
+      <c r="N42" s="117"/>
+      <c r="O42" s="144"/>
       <c r="P42" s="1"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="117"/>
-      <c r="C43" s="118"/>
-      <c r="D43" s="118"/>
-      <c r="E43" s="118"/>
-      <c r="F43" s="118"/>
-      <c r="G43" s="118"/>
-      <c r="H43" s="118"/>
-      <c r="I43" s="118"/>
-      <c r="J43" s="118"/>
-      <c r="K43" s="118"/>
-      <c r="L43" s="118"/>
-      <c r="M43" s="118"/>
-      <c r="N43" s="118"/>
-      <c r="O43" s="119"/>
+      <c r="B43" s="143"/>
+      <c r="C43" s="117"/>
+      <c r="D43" s="117"/>
+      <c r="E43" s="117"/>
+      <c r="F43" s="117"/>
+      <c r="G43" s="117"/>
+      <c r="H43" s="117"/>
+      <c r="I43" s="117"/>
+      <c r="J43" s="117"/>
+      <c r="K43" s="117"/>
+      <c r="L43" s="117"/>
+      <c r="M43" s="117"/>
+      <c r="N43" s="117"/>
+      <c r="O43" s="144"/>
       <c r="P43" s="1"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="117"/>
-      <c r="C44" s="118"/>
-      <c r="D44" s="118"/>
-      <c r="E44" s="118"/>
-      <c r="F44" s="118"/>
-      <c r="G44" s="118"/>
-      <c r="H44" s="118"/>
-      <c r="I44" s="118"/>
-      <c r="J44" s="118"/>
-      <c r="K44" s="118"/>
-      <c r="L44" s="118"/>
-      <c r="M44" s="118"/>
-      <c r="N44" s="118"/>
-      <c r="O44" s="119"/>
+      <c r="B44" s="143"/>
+      <c r="C44" s="117"/>
+      <c r="D44" s="117"/>
+      <c r="E44" s="117"/>
+      <c r="F44" s="117"/>
+      <c r="G44" s="117"/>
+      <c r="H44" s="117"/>
+      <c r="I44" s="117"/>
+      <c r="J44" s="117"/>
+      <c r="K44" s="117"/>
+      <c r="L44" s="117"/>
+      <c r="M44" s="117"/>
+      <c r="N44" s="117"/>
+      <c r="O44" s="144"/>
       <c r="P44" s="1"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="117"/>
-      <c r="C45" s="118"/>
-      <c r="D45" s="118"/>
-      <c r="E45" s="118"/>
-      <c r="F45" s="118"/>
-      <c r="G45" s="118"/>
-      <c r="H45" s="118"/>
-      <c r="I45" s="118"/>
-      <c r="J45" s="118"/>
-      <c r="K45" s="118"/>
-      <c r="L45" s="118"/>
-      <c r="M45" s="118"/>
-      <c r="N45" s="118"/>
-      <c r="O45" s="119"/>
+      <c r="B45" s="143"/>
+      <c r="C45" s="117"/>
+      <c r="D45" s="117"/>
+      <c r="E45" s="117"/>
+      <c r="F45" s="117"/>
+      <c r="G45" s="117"/>
+      <c r="H45" s="117"/>
+      <c r="I45" s="117"/>
+      <c r="J45" s="117"/>
+      <c r="K45" s="117"/>
+      <c r="L45" s="117"/>
+      <c r="M45" s="117"/>
+      <c r="N45" s="117"/>
+      <c r="O45" s="144"/>
       <c r="P45" s="1"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="117"/>
-      <c r="C46" s="118"/>
-      <c r="D46" s="118"/>
-      <c r="E46" s="118"/>
-      <c r="F46" s="118"/>
-      <c r="G46" s="118"/>
-      <c r="H46" s="118"/>
-      <c r="I46" s="118"/>
-      <c r="J46" s="118"/>
-      <c r="K46" s="118"/>
-      <c r="L46" s="118"/>
-      <c r="M46" s="118"/>
-      <c r="N46" s="118"/>
-      <c r="O46" s="119"/>
+      <c r="B46" s="143"/>
+      <c r="C46" s="117"/>
+      <c r="D46" s="117"/>
+      <c r="E46" s="117"/>
+      <c r="F46" s="117"/>
+      <c r="G46" s="117"/>
+      <c r="H46" s="117"/>
+      <c r="I46" s="117"/>
+      <c r="J46" s="117"/>
+      <c r="K46" s="117"/>
+      <c r="L46" s="117"/>
+      <c r="M46" s="117"/>
+      <c r="N46" s="117"/>
+      <c r="O46" s="144"/>
       <c r="P46" s="1"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="117"/>
-      <c r="C47" s="118"/>
-      <c r="D47" s="118"/>
-      <c r="E47" s="118"/>
-      <c r="F47" s="118"/>
-      <c r="G47" s="118"/>
-      <c r="H47" s="118"/>
-      <c r="I47" s="118"/>
-      <c r="J47" s="118"/>
-      <c r="K47" s="118"/>
-      <c r="L47" s="118"/>
-      <c r="M47" s="118"/>
-      <c r="N47" s="118"/>
-      <c r="O47" s="119"/>
+      <c r="B47" s="143"/>
+      <c r="C47" s="117"/>
+      <c r="D47" s="117"/>
+      <c r="E47" s="117"/>
+      <c r="F47" s="117"/>
+      <c r="G47" s="117"/>
+      <c r="H47" s="117"/>
+      <c r="I47" s="117"/>
+      <c r="J47" s="117"/>
+      <c r="K47" s="117"/>
+      <c r="L47" s="117"/>
+      <c r="M47" s="117"/>
+      <c r="N47" s="117"/>
+      <c r="O47" s="144"/>
       <c r="P47" s="1"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="117"/>
-      <c r="C48" s="118"/>
-      <c r="D48" s="118"/>
-      <c r="E48" s="118"/>
-      <c r="F48" s="118"/>
-      <c r="G48" s="118"/>
-      <c r="H48" s="118"/>
-      <c r="I48" s="118"/>
-      <c r="J48" s="118"/>
-      <c r="K48" s="118"/>
-      <c r="L48" s="118"/>
-      <c r="M48" s="118"/>
-      <c r="N48" s="118"/>
-      <c r="O48" s="119"/>
+      <c r="B48" s="143"/>
+      <c r="C48" s="117"/>
+      <c r="D48" s="117"/>
+      <c r="E48" s="117"/>
+      <c r="F48" s="117"/>
+      <c r="G48" s="117"/>
+      <c r="H48" s="117"/>
+      <c r="I48" s="117"/>
+      <c r="J48" s="117"/>
+      <c r="K48" s="117"/>
+      <c r="L48" s="117"/>
+      <c r="M48" s="117"/>
+      <c r="N48" s="117"/>
+      <c r="O48" s="144"/>
       <c r="P48" s="1"/>
     </row>
     <row r="49" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
-      <c r="B49" s="123"/>
-      <c r="C49" s="124"/>
-      <c r="D49" s="124"/>
-      <c r="E49" s="124"/>
-      <c r="F49" s="124"/>
-      <c r="G49" s="124"/>
-      <c r="H49" s="124"/>
-      <c r="I49" s="124"/>
-      <c r="J49" s="124"/>
-      <c r="K49" s="124"/>
-      <c r="L49" s="124"/>
-      <c r="M49" s="124"/>
-      <c r="N49" s="124"/>
-      <c r="O49" s="125"/>
+      <c r="B49" s="148"/>
+      <c r="C49" s="149"/>
+      <c r="D49" s="149"/>
+      <c r="E49" s="149"/>
+      <c r="F49" s="149"/>
+      <c r="G49" s="149"/>
+      <c r="H49" s="149"/>
+      <c r="I49" s="149"/>
+      <c r="J49" s="149"/>
+      <c r="K49" s="149"/>
+      <c r="L49" s="149"/>
+      <c r="M49" s="149"/>
+      <c r="N49" s="149"/>
+      <c r="O49" s="150"/>
       <c r="P49" s="1"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="113" t="s">
+      <c r="B50" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="113"/>
-      <c r="D50" s="113"/>
-      <c r="E50" s="113"/>
-      <c r="F50" s="113"/>
-      <c r="G50" s="113"/>
-      <c r="H50" s="113"/>
-      <c r="I50" s="113"/>
-      <c r="J50" s="113"/>
-      <c r="K50" s="113"/>
-      <c r="L50" s="113"/>
-      <c r="M50" s="113"/>
-      <c r="N50" s="113"/>
-      <c r="O50" s="113"/>
+      <c r="C50" s="139"/>
+      <c r="D50" s="139"/>
+      <c r="E50" s="139"/>
+      <c r="F50" s="139"/>
+      <c r="G50" s="139"/>
+      <c r="H50" s="139"/>
+      <c r="I50" s="139"/>
+      <c r="J50" s="139"/>
+      <c r="K50" s="139"/>
+      <c r="L50" s="139"/>
+      <c r="M50" s="139"/>
+      <c r="N50" s="139"/>
+      <c r="O50" s="139"/>
       <c r="P50" s="1"/>
     </row>
     <row r="51" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4856,15 +4856,15 @@
       <c r="A52" s="1"/>
       <c r="B52" s="12"/>
       <c r="C52" s="13"/>
-      <c r="D52" s="130"/>
-      <c r="E52" s="131"/>
-      <c r="F52" s="131"/>
-      <c r="G52" s="131"/>
-      <c r="H52" s="131"/>
-      <c r="I52" s="131"/>
-      <c r="J52" s="131"/>
-      <c r="K52" s="131"/>
-      <c r="L52" s="132"/>
+      <c r="D52" s="153"/>
+      <c r="E52" s="154"/>
+      <c r="F52" s="154"/>
+      <c r="G52" s="154"/>
+      <c r="H52" s="154"/>
+      <c r="I52" s="154"/>
+      <c r="J52" s="154"/>
+      <c r="K52" s="154"/>
+      <c r="L52" s="155"/>
       <c r="M52" s="13"/>
       <c r="N52" s="13"/>
       <c r="O52" s="14"/>
@@ -4874,15 +4874,15 @@
       <c r="A53" s="1"/>
       <c r="B53" s="15"/>
       <c r="C53" s="11"/>
-      <c r="D53" s="133"/>
-      <c r="E53" s="134"/>
-      <c r="F53" s="134"/>
-      <c r="G53" s="134"/>
-      <c r="H53" s="134"/>
-      <c r="I53" s="134"/>
-      <c r="J53" s="134"/>
-      <c r="K53" s="134"/>
-      <c r="L53" s="135"/>
+      <c r="D53" s="156"/>
+      <c r="E53" s="157"/>
+      <c r="F53" s="157"/>
+      <c r="G53" s="157"/>
+      <c r="H53" s="157"/>
+      <c r="I53" s="157"/>
+      <c r="J53" s="157"/>
+      <c r="K53" s="157"/>
+      <c r="L53" s="158"/>
       <c r="M53" s="11"/>
       <c r="N53" s="11"/>
       <c r="O53" s="16"/>
@@ -4892,15 +4892,15 @@
       <c r="A54" s="1"/>
       <c r="B54" s="15"/>
       <c r="C54" s="11"/>
-      <c r="D54" s="133"/>
-      <c r="E54" s="134"/>
-      <c r="F54" s="134"/>
-      <c r="G54" s="134"/>
-      <c r="H54" s="134"/>
-      <c r="I54" s="134"/>
-      <c r="J54" s="134"/>
-      <c r="K54" s="134"/>
-      <c r="L54" s="135"/>
+      <c r="D54" s="156"/>
+      <c r="E54" s="157"/>
+      <c r="F54" s="157"/>
+      <c r="G54" s="157"/>
+      <c r="H54" s="157"/>
+      <c r="I54" s="157"/>
+      <c r="J54" s="157"/>
+      <c r="K54" s="157"/>
+      <c r="L54" s="158"/>
       <c r="M54" s="11"/>
       <c r="N54" s="11"/>
       <c r="O54" s="16"/>
@@ -4910,15 +4910,15 @@
       <c r="A55" s="1"/>
       <c r="B55" s="15"/>
       <c r="C55" s="11"/>
-      <c r="D55" s="133"/>
-      <c r="E55" s="134"/>
-      <c r="F55" s="134"/>
-      <c r="G55" s="134"/>
-      <c r="H55" s="134"/>
-      <c r="I55" s="134"/>
-      <c r="J55" s="134"/>
-      <c r="K55" s="134"/>
-      <c r="L55" s="135"/>
+      <c r="D55" s="156"/>
+      <c r="E55" s="157"/>
+      <c r="F55" s="157"/>
+      <c r="G55" s="157"/>
+      <c r="H55" s="157"/>
+      <c r="I55" s="157"/>
+      <c r="J55" s="157"/>
+      <c r="K55" s="157"/>
+      <c r="L55" s="158"/>
       <c r="M55" s="11"/>
       <c r="N55" s="11"/>
       <c r="O55" s="16"/>
@@ -4928,15 +4928,15 @@
       <c r="A56" s="1"/>
       <c r="B56" s="17"/>
       <c r="C56" s="18"/>
-      <c r="D56" s="128"/>
-      <c r="E56" s="128"/>
-      <c r="F56" s="128"/>
-      <c r="G56" s="128"/>
-      <c r="H56" s="128"/>
-      <c r="I56" s="128"/>
-      <c r="J56" s="128"/>
-      <c r="K56" s="128"/>
-      <c r="L56" s="128"/>
+      <c r="D56" s="151"/>
+      <c r="E56" s="151"/>
+      <c r="F56" s="151"/>
+      <c r="G56" s="151"/>
+      <c r="H56" s="151"/>
+      <c r="I56" s="151"/>
+      <c r="J56" s="151"/>
+      <c r="K56" s="151"/>
+      <c r="L56" s="151"/>
       <c r="M56" s="19"/>
       <c r="N56" s="19"/>
       <c r="O56" s="20"/>
@@ -4946,15 +4946,15 @@
       <c r="A57" s="1"/>
       <c r="B57" s="17"/>
       <c r="C57" s="18"/>
-      <c r="D57" s="128"/>
-      <c r="E57" s="128"/>
-      <c r="F57" s="128"/>
-      <c r="G57" s="128"/>
-      <c r="H57" s="128"/>
-      <c r="I57" s="128"/>
-      <c r="J57" s="128"/>
-      <c r="K57" s="128"/>
-      <c r="L57" s="128"/>
+      <c r="D57" s="151"/>
+      <c r="E57" s="151"/>
+      <c r="F57" s="151"/>
+      <c r="G57" s="151"/>
+      <c r="H57" s="151"/>
+      <c r="I57" s="151"/>
+      <c r="J57" s="151"/>
+      <c r="K57" s="151"/>
+      <c r="L57" s="151"/>
       <c r="M57" s="19"/>
       <c r="N57" s="19"/>
       <c r="O57" s="20"/>
@@ -4967,19 +4967,19 @@
       </c>
       <c r="C58" s="18">
         <f ca="1">TODAY()</f>
-        <v>43111</v>
-      </c>
-      <c r="D58" s="128" t="s">
+        <v>43139</v>
+      </c>
+      <c r="D58" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="E58" s="128"/>
-      <c r="F58" s="128"/>
-      <c r="G58" s="128"/>
-      <c r="H58" s="128"/>
-      <c r="I58" s="128"/>
-      <c r="J58" s="128"/>
-      <c r="K58" s="128"/>
-      <c r="L58" s="128"/>
+      <c r="E58" s="151"/>
+      <c r="F58" s="151"/>
+      <c r="G58" s="151"/>
+      <c r="H58" s="151"/>
+      <c r="I58" s="151"/>
+      <c r="J58" s="151"/>
+      <c r="K58" s="151"/>
+      <c r="L58" s="151"/>
       <c r="M58" s="19" t="s">
         <v>93</v>
       </c>
@@ -4999,17 +4999,17 @@
       <c r="C59" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D59" s="129" t="s">
+      <c r="D59" s="152" t="s">
         <v>18</v>
       </c>
-      <c r="E59" s="129"/>
-      <c r="F59" s="129"/>
-      <c r="G59" s="129"/>
-      <c r="H59" s="129"/>
-      <c r="I59" s="129"/>
-      <c r="J59" s="129"/>
-      <c r="K59" s="129"/>
-      <c r="L59" s="129"/>
+      <c r="E59" s="152"/>
+      <c r="F59" s="152"/>
+      <c r="G59" s="152"/>
+      <c r="H59" s="152"/>
+      <c r="I59" s="152"/>
+      <c r="J59" s="152"/>
+      <c r="K59" s="152"/>
+      <c r="L59" s="152"/>
       <c r="M59" s="22" t="s">
         <v>19</v>
       </c>
@@ -5099,6 +5099,17 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B50:O50"/>
+    <mergeCell ref="B17:O49"/>
+    <mergeCell ref="F14:O14"/>
+    <mergeCell ref="D58:L58"/>
+    <mergeCell ref="D59:L59"/>
+    <mergeCell ref="D52:L52"/>
+    <mergeCell ref="D53:L53"/>
+    <mergeCell ref="D54:L54"/>
+    <mergeCell ref="D55:L55"/>
+    <mergeCell ref="D56:L56"/>
+    <mergeCell ref="D57:L57"/>
     <mergeCell ref="C2:N7"/>
     <mergeCell ref="B9:O9"/>
     <mergeCell ref="B10:O10"/>
@@ -5110,17 +5121,6 @@
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="F12:O12"/>
     <mergeCell ref="F13:O13"/>
-    <mergeCell ref="B50:O50"/>
-    <mergeCell ref="B17:O49"/>
-    <mergeCell ref="F14:O14"/>
-    <mergeCell ref="D58:L58"/>
-    <mergeCell ref="D59:L59"/>
-    <mergeCell ref="D52:L52"/>
-    <mergeCell ref="D53:L53"/>
-    <mergeCell ref="D54:L54"/>
-    <mergeCell ref="D55:L55"/>
-    <mergeCell ref="D56:L56"/>
-    <mergeCell ref="D57:L57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
@@ -5133,7 +5133,7 @@
   <dimension ref="A1:T60"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27:L27"/>
+      <selection activeCell="D34" sqref="D34:L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5545,107 +5545,107 @@
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="137"/>
-      <c r="L2" s="137"/>
-      <c r="M2" s="137"/>
-      <c r="N2" s="138"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="115"/>
       <c r="O2" s="3"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="118"/>
-      <c r="M3" s="118"/>
-      <c r="N3" s="140"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="117"/>
+      <c r="N3" s="118"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="118"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="118"/>
-      <c r="M4" s="118"/>
-      <c r="N4" s="140"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="117"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="118"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="139"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="118"/>
-      <c r="F5" s="118"/>
-      <c r="G5" s="118"/>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
-      <c r="L5" s="118"/>
-      <c r="M5" s="118"/>
-      <c r="N5" s="140"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="118"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="139"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="118"/>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
-      <c r="L6" s="118"/>
-      <c r="M6" s="118"/>
-      <c r="N6" s="140"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="117"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="118"/>
       <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="142"/>
-      <c r="K7" s="142"/>
-      <c r="L7" s="142"/>
-      <c r="M7" s="142"/>
-      <c r="N7" s="143"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="120"/>
+      <c r="M7" s="120"/>
+      <c r="N7" s="121"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
@@ -5669,43 +5669,43 @@
     </row>
     <row r="9" spans="1:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="234" t="s">
+      <c r="B9" s="169" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="235"/>
-      <c r="D9" s="235"/>
-      <c r="E9" s="235"/>
-      <c r="F9" s="235"/>
-      <c r="G9" s="235"/>
-      <c r="H9" s="235"/>
-      <c r="I9" s="235"/>
-      <c r="J9" s="235"/>
-      <c r="K9" s="235"/>
-      <c r="L9" s="235"/>
-      <c r="M9" s="235"/>
-      <c r="N9" s="235"/>
-      <c r="O9" s="236"/>
+      <c r="C9" s="170"/>
+      <c r="D9" s="170"/>
+      <c r="E9" s="170"/>
+      <c r="F9" s="170"/>
+      <c r="G9" s="170"/>
+      <c r="H9" s="170"/>
+      <c r="I9" s="170"/>
+      <c r="J9" s="170"/>
+      <c r="K9" s="170"/>
+      <c r="L9" s="170"/>
+      <c r="M9" s="170"/>
+      <c r="N9" s="170"/>
+      <c r="O9" s="171"/>
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="237" t="str">
+      <c r="B10" s="172" t="str">
         <f>IF(ISBLANK(Synthèse!B2),"",Synthèse!B2)</f>
         <v>OPP_4-6_LT_26165_LVON_002</v>
       </c>
-      <c r="C10" s="237"/>
-      <c r="D10" s="237"/>
-      <c r="E10" s="237"/>
-      <c r="F10" s="237"/>
-      <c r="G10" s="237"/>
-      <c r="H10" s="237"/>
-      <c r="I10" s="237"/>
-      <c r="J10" s="237"/>
-      <c r="K10" s="237"/>
-      <c r="L10" s="237"/>
-      <c r="M10" s="237"/>
-      <c r="N10" s="237"/>
-      <c r="O10" s="237"/>
+      <c r="C10" s="172"/>
+      <c r="D10" s="172"/>
+      <c r="E10" s="172"/>
+      <c r="F10" s="172"/>
+      <c r="G10" s="172"/>
+      <c r="H10" s="172"/>
+      <c r="I10" s="172"/>
+      <c r="J10" s="172"/>
+      <c r="K10" s="172"/>
+      <c r="L10" s="172"/>
+      <c r="M10" s="172"/>
+      <c r="N10" s="172"/>
+      <c r="O10" s="172"/>
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5728,255 +5728,255 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="244" t="s">
+      <c r="B12" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="245"/>
-      <c r="D12" s="245"/>
-      <c r="E12" s="245"/>
-      <c r="F12" s="245"/>
-      <c r="G12" s="245"/>
-      <c r="H12" s="245"/>
-      <c r="I12" s="245"/>
-      <c r="J12" s="245"/>
-      <c r="K12" s="245"/>
-      <c r="L12" s="245"/>
-      <c r="M12" s="238" t="s">
+      <c r="C12" s="182"/>
+      <c r="D12" s="182"/>
+      <c r="E12" s="182"/>
+      <c r="F12" s="182"/>
+      <c r="G12" s="182"/>
+      <c r="H12" s="182"/>
+      <c r="I12" s="182"/>
+      <c r="J12" s="182"/>
+      <c r="K12" s="182"/>
+      <c r="L12" s="182"/>
+      <c r="M12" s="175" t="s">
         <v>13</v>
       </c>
-      <c r="N12" s="239"/>
-      <c r="O12" s="240"/>
+      <c r="N12" s="176"/>
+      <c r="O12" s="177"/>
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="246"/>
-      <c r="C13" s="247"/>
-      <c r="D13" s="247"/>
-      <c r="E13" s="247"/>
-      <c r="F13" s="247"/>
-      <c r="G13" s="247"/>
-      <c r="H13" s="247"/>
-      <c r="I13" s="247"/>
-      <c r="J13" s="247"/>
-      <c r="K13" s="247"/>
-      <c r="L13" s="247"/>
-      <c r="M13" s="241"/>
-      <c r="N13" s="242"/>
-      <c r="O13" s="243"/>
+      <c r="B13" s="183"/>
+      <c r="C13" s="184"/>
+      <c r="D13" s="184"/>
+      <c r="E13" s="184"/>
+      <c r="F13" s="184"/>
+      <c r="G13" s="184"/>
+      <c r="H13" s="184"/>
+      <c r="I13" s="184"/>
+      <c r="J13" s="184"/>
+      <c r="K13" s="184"/>
+      <c r="L13" s="184"/>
+      <c r="M13" s="178"/>
+      <c r="N13" s="179"/>
+      <c r="O13" s="180"/>
       <c r="P13" s="1"/>
     </row>
     <row r="14" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="209" t="s">
+      <c r="B14" s="173" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="209"/>
-      <c r="D14" s="220" t="str">
+      <c r="C14" s="173"/>
+      <c r="D14" s="185" t="str">
         <f>IF(ISBLANK(Synthèse!F2),"",Synthèse!F2)</f>
         <v>Enfouissement HTA</v>
       </c>
-      <c r="E14" s="221"/>
-      <c r="F14" s="221"/>
-      <c r="G14" s="221"/>
-      <c r="H14" s="221"/>
-      <c r="I14" s="221"/>
-      <c r="J14" s="221"/>
-      <c r="K14" s="221"/>
-      <c r="L14" s="222"/>
-      <c r="M14" s="215">
+      <c r="E14" s="186"/>
+      <c r="F14" s="186"/>
+      <c r="G14" s="186"/>
+      <c r="H14" s="186"/>
+      <c r="I14" s="186"/>
+      <c r="J14" s="186"/>
+      <c r="K14" s="186"/>
+      <c r="L14" s="187"/>
+      <c r="M14" s="174">
         <f>'Pondération '!J4</f>
         <v>4</v>
       </c>
-      <c r="N14" s="215"/>
-      <c r="O14" s="215"/>
-      <c r="P14" s="228">
+      <c r="N14" s="174"/>
+      <c r="O14" s="174"/>
+      <c r="P14" s="163">
         <f>'Pondération '!J18</f>
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="209" t="s">
+      <c r="B15" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="209"/>
-      <c r="D15" s="220" t="str">
+      <c r="C15" s="173"/>
+      <c r="D15" s="185" t="str">
         <f>IF(ISBLANK(Synthèse!G2),"Inconnue",Synthèse!G2)</f>
         <v>Aerien BT</v>
       </c>
-      <c r="E15" s="221"/>
-      <c r="F15" s="221"/>
-      <c r="G15" s="221"/>
-      <c r="H15" s="221"/>
-      <c r="I15" s="221"/>
-      <c r="J15" s="221"/>
-      <c r="K15" s="221"/>
-      <c r="L15" s="222"/>
-      <c r="M15" s="215">
+      <c r="E15" s="186"/>
+      <c r="F15" s="186"/>
+      <c r="G15" s="186"/>
+      <c r="H15" s="186"/>
+      <c r="I15" s="186"/>
+      <c r="J15" s="186"/>
+      <c r="K15" s="186"/>
+      <c r="L15" s="187"/>
+      <c r="M15" s="174">
         <f>'Pondération '!J6</f>
         <v>3</v>
       </c>
-      <c r="N15" s="215"/>
-      <c r="O15" s="215"/>
-      <c r="P15" s="229"/>
+      <c r="N15" s="174"/>
+      <c r="O15" s="174"/>
+      <c r="P15" s="164"/>
     </row>
     <row r="16" spans="1:16" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="209" t="s">
+      <c r="B16" s="173" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="209"/>
-      <c r="D16" s="220" t="str">
+      <c r="C16" s="173"/>
+      <c r="D16" s="185" t="str">
         <f>IF(ISBLANK(Synthèse!H2),"Inconnue",Synthèse!H2)</f>
         <v>1 X 720</v>
       </c>
-      <c r="E16" s="221"/>
-      <c r="F16" s="221"/>
-      <c r="G16" s="221"/>
-      <c r="H16" s="221"/>
-      <c r="I16" s="221"/>
-      <c r="J16" s="221"/>
-      <c r="K16" s="221"/>
-      <c r="L16" s="222"/>
-      <c r="M16" s="215">
+      <c r="E16" s="186"/>
+      <c r="F16" s="186"/>
+      <c r="G16" s="186"/>
+      <c r="H16" s="186"/>
+      <c r="I16" s="186"/>
+      <c r="J16" s="186"/>
+      <c r="K16" s="186"/>
+      <c r="L16" s="187"/>
+      <c r="M16" s="174">
         <f>'Pondération '!J8</f>
         <v>6</v>
       </c>
-      <c r="N16" s="215"/>
-      <c r="O16" s="215"/>
-      <c r="P16" s="229"/>
+      <c r="N16" s="174"/>
+      <c r="O16" s="174"/>
+      <c r="P16" s="164"/>
     </row>
     <row r="17" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="209" t="s">
+      <c r="B17" s="173" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="209"/>
-      <c r="D17" s="223">
+      <c r="C17" s="173"/>
+      <c r="D17" s="188">
         <f>IF(ISBLANK(Synthèse!J2),"Inconnu",Synthèse!J2)</f>
         <v>2018</v>
       </c>
-      <c r="E17" s="224"/>
-      <c r="F17" s="224"/>
-      <c r="G17" s="224"/>
-      <c r="H17" s="224"/>
-      <c r="I17" s="224"/>
-      <c r="J17" s="224"/>
-      <c r="K17" s="224"/>
-      <c r="L17" s="225"/>
-      <c r="M17" s="215">
+      <c r="E17" s="189"/>
+      <c r="F17" s="189"/>
+      <c r="G17" s="189"/>
+      <c r="H17" s="189"/>
+      <c r="I17" s="189"/>
+      <c r="J17" s="189"/>
+      <c r="K17" s="189"/>
+      <c r="L17" s="190"/>
+      <c r="M17" s="174">
         <f>'Pondération '!J10</f>
         <v>5</v>
       </c>
-      <c r="N17" s="215"/>
-      <c r="O17" s="215"/>
-      <c r="P17" s="229"/>
+      <c r="N17" s="174"/>
+      <c r="O17" s="174"/>
+      <c r="P17" s="164"/>
     </row>
     <row r="18" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="209" t="s">
+      <c r="B18" s="173" t="s">
         <v>156</v>
       </c>
-      <c r="C18" s="209"/>
-      <c r="D18" s="217" t="str">
+      <c r="C18" s="173"/>
+      <c r="D18" s="193" t="str">
         <f>IF(ISBLANK(Synthèse!K2),"",Synthèse!K2)</f>
         <v>Hiver 2018</v>
       </c>
-      <c r="E18" s="218"/>
-      <c r="F18" s="218"/>
-      <c r="G18" s="218"/>
-      <c r="H18" s="218"/>
-      <c r="I18" s="218"/>
-      <c r="J18" s="218"/>
-      <c r="K18" s="218"/>
-      <c r="L18" s="219"/>
-      <c r="M18" s="215">
+      <c r="E18" s="194"/>
+      <c r="F18" s="194"/>
+      <c r="G18" s="194"/>
+      <c r="H18" s="194"/>
+      <c r="I18" s="194"/>
+      <c r="J18" s="194"/>
+      <c r="K18" s="194"/>
+      <c r="L18" s="195"/>
+      <c r="M18" s="174">
         <f>'Pondération '!J12</f>
         <v>6</v>
       </c>
-      <c r="N18" s="215"/>
-      <c r="O18" s="215"/>
-      <c r="P18" s="229"/>
+      <c r="N18" s="174"/>
+      <c r="O18" s="174"/>
+      <c r="P18" s="164"/>
     </row>
     <row r="19" spans="1:20" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="209" t="s">
+      <c r="B19" s="173" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="209"/>
-      <c r="D19" s="217" t="str">
+      <c r="C19" s="173"/>
+      <c r="D19" s="193" t="str">
         <f>IF(ISBLANK(Synthèse!L2),"",Synthèse!L2)</f>
         <v>Enedis</v>
       </c>
-      <c r="E19" s="218"/>
-      <c r="F19" s="218"/>
-      <c r="G19" s="218"/>
-      <c r="H19" s="218"/>
-      <c r="I19" s="218"/>
-      <c r="J19" s="218"/>
-      <c r="K19" s="218"/>
-      <c r="L19" s="219"/>
-      <c r="M19" s="215">
+      <c r="E19" s="194"/>
+      <c r="F19" s="194"/>
+      <c r="G19" s="194"/>
+      <c r="H19" s="194"/>
+      <c r="I19" s="194"/>
+      <c r="J19" s="194"/>
+      <c r="K19" s="194"/>
+      <c r="L19" s="195"/>
+      <c r="M19" s="174">
         <f>'Pondération '!J14</f>
         <v>5</v>
       </c>
-      <c r="N19" s="215"/>
-      <c r="O19" s="215"/>
-      <c r="P19" s="229"/>
+      <c r="N19" s="174"/>
+      <c r="O19" s="174"/>
+      <c r="P19" s="164"/>
     </row>
     <row r="20" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="209" t="s">
+      <c r="B20" s="173" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="209"/>
-      <c r="D20" s="217">
+      <c r="C20" s="173"/>
+      <c r="D20" s="193">
         <f>IF(ISBLANK(Synthèse!M2),"",Synthèse!M2)</f>
         <v>50</v>
       </c>
-      <c r="E20" s="218"/>
-      <c r="F20" s="218"/>
-      <c r="G20" s="218"/>
-      <c r="H20" s="218"/>
-      <c r="I20" s="218"/>
-      <c r="J20" s="218"/>
-      <c r="K20" s="218"/>
-      <c r="L20" s="219"/>
-      <c r="M20" s="215">
+      <c r="E20" s="194"/>
+      <c r="F20" s="194"/>
+      <c r="G20" s="194"/>
+      <c r="H20" s="194"/>
+      <c r="I20" s="194"/>
+      <c r="J20" s="194"/>
+      <c r="K20" s="194"/>
+      <c r="L20" s="195"/>
+      <c r="M20" s="174">
         <f>'Pondération '!J16</f>
         <v>1</v>
       </c>
-      <c r="N20" s="215"/>
-      <c r="O20" s="215"/>
-      <c r="P20" s="230"/>
-      <c r="S20" s="159" t="s">
+      <c r="N20" s="174"/>
+      <c r="O20" s="174"/>
+      <c r="P20" s="165"/>
+      <c r="S20" s="217" t="s">
         <v>162</v>
       </c>
-      <c r="T20" s="160"/>
+      <c r="T20" s="218"/>
     </row>
     <row r="21" spans="1:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="216"/>
-      <c r="C21" s="216"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="118"/>
-      <c r="J21" s="118"/>
-      <c r="K21" s="118"/>
-      <c r="L21" s="118"/>
-      <c r="M21" s="118"/>
-      <c r="N21" s="118"/>
-      <c r="O21" s="118"/>
+      <c r="B21" s="192"/>
+      <c r="C21" s="192"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="117"/>
+      <c r="I21" s="117"/>
+      <c r="J21" s="117"/>
+      <c r="K21" s="117"/>
+      <c r="L21" s="117"/>
+      <c r="M21" s="117"/>
+      <c r="N21" s="117"/>
+      <c r="O21" s="117"/>
       <c r="P21" s="1"/>
-      <c r="S21" s="161" t="str">
+      <c r="S21" s="219" t="str">
         <f>P14+P33+P38&amp;"/100"</f>
         <v>90/100</v>
       </c>
-      <c r="T21" s="162"/>
+      <c r="T21" s="220"/>
     </row>
     <row r="22" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
@@ -6000,19 +6000,19 @@
     </row>
     <row r="23" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="197" t="s">
+      <c r="B23" s="198" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="198"/>
-      <c r="D23" s="198"/>
-      <c r="E23" s="198"/>
-      <c r="F23" s="198"/>
-      <c r="G23" s="198"/>
-      <c r="H23" s="198"/>
-      <c r="I23" s="198"/>
-      <c r="J23" s="198"/>
-      <c r="K23" s="198"/>
-      <c r="L23" s="199"/>
+      <c r="C23" s="199"/>
+      <c r="D23" s="199"/>
+      <c r="E23" s="199"/>
+      <c r="F23" s="199"/>
+      <c r="G23" s="199"/>
+      <c r="H23" s="199"/>
+      <c r="I23" s="199"/>
+      <c r="J23" s="199"/>
+      <c r="K23" s="199"/>
+      <c r="L23" s="200"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
@@ -6022,132 +6022,132 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="200"/>
-      <c r="C24" s="201"/>
-      <c r="D24" s="201"/>
-      <c r="E24" s="201"/>
-      <c r="F24" s="201"/>
-      <c r="G24" s="201"/>
-      <c r="H24" s="201"/>
-      <c r="I24" s="201"/>
-      <c r="J24" s="201"/>
-      <c r="K24" s="201"/>
-      <c r="L24" s="202"/>
-      <c r="M24" s="214"/>
-      <c r="N24" s="214"/>
-      <c r="O24" s="214"/>
+      <c r="B24" s="201"/>
+      <c r="C24" s="202"/>
+      <c r="D24" s="202"/>
+      <c r="E24" s="202"/>
+      <c r="F24" s="202"/>
+      <c r="G24" s="202"/>
+      <c r="H24" s="202"/>
+      <c r="I24" s="202"/>
+      <c r="J24" s="202"/>
+      <c r="K24" s="202"/>
+      <c r="L24" s="203"/>
+      <c r="M24" s="191"/>
+      <c r="N24" s="191"/>
+      <c r="O24" s="191"/>
       <c r="P24" s="72"/>
     </row>
     <row r="25" spans="1:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="209" t="s">
+      <c r="B25" s="173" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="209"/>
-      <c r="D25" s="181">
+      <c r="C25" s="173"/>
+      <c r="D25" s="214">
         <f>IF(ISBLANK(Synthèse!O2),0,Synthèse!O2)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="182"/>
-      <c r="F25" s="182"/>
-      <c r="G25" s="182"/>
-      <c r="H25" s="182"/>
-      <c r="I25" s="182"/>
-      <c r="J25" s="182"/>
-      <c r="K25" s="182"/>
-      <c r="L25" s="183"/>
-      <c r="M25" s="214"/>
-      <c r="N25" s="214"/>
-      <c r="O25" s="214"/>
+      <c r="E25" s="215"/>
+      <c r="F25" s="215"/>
+      <c r="G25" s="215"/>
+      <c r="H25" s="215"/>
+      <c r="I25" s="215"/>
+      <c r="J25" s="215"/>
+      <c r="K25" s="215"/>
+      <c r="L25" s="216"/>
+      <c r="M25" s="191"/>
+      <c r="N25" s="191"/>
+      <c r="O25" s="191"/>
       <c r="P25" s="88"/>
     </row>
     <row r="26" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="193" t="s">
+      <c r="B26" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="193"/>
-      <c r="D26" s="181">
+      <c r="C26" s="197"/>
+      <c r="D26" s="214">
         <f>IF(ISBLANK(Synthèse!P2),"",Synthèse!P2)</f>
         <v>7</v>
       </c>
-      <c r="E26" s="182"/>
-      <c r="F26" s="182"/>
-      <c r="G26" s="182"/>
-      <c r="H26" s="182"/>
-      <c r="I26" s="182"/>
-      <c r="J26" s="182"/>
-      <c r="K26" s="182"/>
-      <c r="L26" s="183"/>
-      <c r="M26" s="172"/>
-      <c r="N26" s="172"/>
-      <c r="O26" s="172"/>
-      <c r="P26" s="172"/>
+      <c r="E26" s="215"/>
+      <c r="F26" s="215"/>
+      <c r="G26" s="215"/>
+      <c r="H26" s="215"/>
+      <c r="I26" s="215"/>
+      <c r="J26" s="215"/>
+      <c r="K26" s="215"/>
+      <c r="L26" s="216"/>
+      <c r="M26" s="196"/>
+      <c r="N26" s="196"/>
+      <c r="O26" s="196"/>
+      <c r="P26" s="196"/>
       <c r="S26" s="87"/>
     </row>
     <row r="27" spans="1:20" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="193" t="s">
+      <c r="B27" s="197" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="193"/>
-      <c r="D27" s="184">
+      <c r="C27" s="197"/>
+      <c r="D27" s="236">
         <f>SUM(GC!H2:H37)</f>
         <v>25</v>
       </c>
-      <c r="E27" s="185"/>
-      <c r="F27" s="185"/>
-      <c r="G27" s="185"/>
-      <c r="H27" s="185"/>
-      <c r="I27" s="185"/>
-      <c r="J27" s="185"/>
-      <c r="K27" s="185"/>
-      <c r="L27" s="186"/>
-      <c r="M27" s="172"/>
-      <c r="N27" s="172"/>
-      <c r="O27" s="172"/>
-      <c r="P27" s="172"/>
+      <c r="E27" s="237"/>
+      <c r="F27" s="237"/>
+      <c r="G27" s="237"/>
+      <c r="H27" s="237"/>
+      <c r="I27" s="237"/>
+      <c r="J27" s="237"/>
+      <c r="K27" s="237"/>
+      <c r="L27" s="238"/>
+      <c r="M27" s="196"/>
+      <c r="N27" s="196"/>
+      <c r="O27" s="196"/>
+      <c r="P27" s="196"/>
     </row>
     <row r="28" spans="1:20" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
-      <c r="B28" s="193" t="s">
+      <c r="B28" s="197" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="193"/>
-      <c r="D28" s="187">
+      <c r="C28" s="197"/>
+      <c r="D28" s="239">
         <f>SUM(GC!F2:F37)</f>
         <v>3018</v>
       </c>
-      <c r="E28" s="188"/>
-      <c r="F28" s="188"/>
-      <c r="G28" s="188"/>
-      <c r="H28" s="188"/>
-      <c r="I28" s="188"/>
-      <c r="J28" s="188"/>
-      <c r="K28" s="188"/>
-      <c r="L28" s="189"/>
-      <c r="M28" s="172"/>
-      <c r="N28" s="172"/>
-      <c r="O28" s="172"/>
-      <c r="P28" s="172"/>
+      <c r="E28" s="240"/>
+      <c r="F28" s="240"/>
+      <c r="G28" s="240"/>
+      <c r="H28" s="240"/>
+      <c r="I28" s="240"/>
+      <c r="J28" s="240"/>
+      <c r="K28" s="240"/>
+      <c r="L28" s="241"/>
+      <c r="M28" s="196"/>
+      <c r="N28" s="196"/>
+      <c r="O28" s="196"/>
+      <c r="P28" s="196"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="118"/>
-      <c r="C29" s="118"/>
-      <c r="D29" s="118"/>
-      <c r="E29" s="118"/>
-      <c r="F29" s="118"/>
-      <c r="G29" s="118"/>
-      <c r="H29" s="118"/>
-      <c r="I29" s="118"/>
-      <c r="J29" s="118"/>
-      <c r="K29" s="118"/>
-      <c r="L29" s="118"/>
-      <c r="M29" s="172"/>
-      <c r="N29" s="172"/>
-      <c r="O29" s="172"/>
-      <c r="P29" s="172"/>
+      <c r="B29" s="117"/>
+      <c r="C29" s="117"/>
+      <c r="D29" s="117"/>
+      <c r="E29" s="117"/>
+      <c r="F29" s="117"/>
+      <c r="G29" s="117"/>
+      <c r="H29" s="117"/>
+      <c r="I29" s="117"/>
+      <c r="J29" s="117"/>
+      <c r="K29" s="117"/>
+      <c r="L29" s="117"/>
+      <c r="M29" s="196"/>
+      <c r="N29" s="196"/>
+      <c r="O29" s="196"/>
+      <c r="P29" s="196"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
@@ -6182,11 +6182,11 @@
       <c r="J31" s="211"/>
       <c r="K31" s="211"/>
       <c r="L31" s="211"/>
-      <c r="M31" s="203" t="s">
+      <c r="M31" s="204" t="s">
         <v>13</v>
       </c>
-      <c r="N31" s="204"/>
-      <c r="O31" s="205"/>
+      <c r="N31" s="205"/>
+      <c r="O31" s="206"/>
       <c r="P31" s="1"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
@@ -6202,85 +6202,85 @@
       <c r="J32" s="213"/>
       <c r="K32" s="213"/>
       <c r="L32" s="213"/>
-      <c r="M32" s="206"/>
-      <c r="N32" s="207"/>
-      <c r="O32" s="208"/>
+      <c r="M32" s="207"/>
+      <c r="N32" s="208"/>
+      <c r="O32" s="209"/>
       <c r="P32" s="1"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="209" t="s">
+      <c r="B33" s="173" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="209"/>
-      <c r="D33" s="190">
+      <c r="C33" s="173"/>
+      <c r="D33" s="242">
         <f>SUM('Pondération '!E52:E58)</f>
         <v>249550</v>
       </c>
-      <c r="E33" s="191"/>
-      <c r="F33" s="191"/>
-      <c r="G33" s="191"/>
-      <c r="H33" s="191"/>
-      <c r="I33" s="191"/>
-      <c r="J33" s="191"/>
-      <c r="K33" s="191"/>
-      <c r="L33" s="192"/>
-      <c r="M33" s="163">
+      <c r="E33" s="243"/>
+      <c r="F33" s="243"/>
+      <c r="G33" s="243"/>
+      <c r="H33" s="243"/>
+      <c r="I33" s="243"/>
+      <c r="J33" s="243"/>
+      <c r="K33" s="243"/>
+      <c r="L33" s="244"/>
+      <c r="M33" s="221">
         <f>'Pondération '!F60</f>
         <v>40</v>
       </c>
-      <c r="N33" s="164"/>
-      <c r="O33" s="165"/>
-      <c r="P33" s="231">
+      <c r="N33" s="222"/>
+      <c r="O33" s="223"/>
+      <c r="P33" s="166">
         <f>M33</f>
         <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="193" t="s">
+      <c r="B34" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="193"/>
-      <c r="D34" s="194">
+      <c r="C34" s="197"/>
+      <c r="D34" s="245">
         <f>SUM('Pondération '!E48:E50,'Pondération '!E35:E41)</f>
         <v>12875</v>
       </c>
-      <c r="E34" s="195"/>
-      <c r="F34" s="195"/>
-      <c r="G34" s="195"/>
-      <c r="H34" s="195"/>
-      <c r="I34" s="195"/>
-      <c r="J34" s="195"/>
-      <c r="K34" s="195"/>
-      <c r="L34" s="196"/>
-      <c r="M34" s="166"/>
-      <c r="N34" s="167"/>
-      <c r="O34" s="168"/>
-      <c r="P34" s="232"/>
+      <c r="E34" s="246"/>
+      <c r="F34" s="246"/>
+      <c r="G34" s="246"/>
+      <c r="H34" s="246"/>
+      <c r="I34" s="246"/>
+      <c r="J34" s="246"/>
+      <c r="K34" s="246"/>
+      <c r="L34" s="247"/>
+      <c r="M34" s="224"/>
+      <c r="N34" s="225"/>
+      <c r="O34" s="226"/>
+      <c r="P34" s="167"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="193" t="s">
+      <c r="B35" s="197" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="193"/>
-      <c r="D35" s="194">
-        <f>'Pondération '!E43</f>
-        <v>0</v>
-      </c>
-      <c r="E35" s="195"/>
-      <c r="F35" s="195"/>
-      <c r="G35" s="195"/>
-      <c r="H35" s="195"/>
-      <c r="I35" s="195"/>
-      <c r="J35" s="195"/>
-      <c r="K35" s="195"/>
-      <c r="L35" s="196"/>
-      <c r="M35" s="169"/>
-      <c r="N35" s="170"/>
-      <c r="O35" s="171"/>
-      <c r="P35" s="233"/>
+      <c r="C35" s="197"/>
+      <c r="D35" s="245">
+        <f>SUM('Pondération '!E43:E46)</f>
+        <v>105630</v>
+      </c>
+      <c r="E35" s="246"/>
+      <c r="F35" s="246"/>
+      <c r="G35" s="246"/>
+      <c r="H35" s="246"/>
+      <c r="I35" s="246"/>
+      <c r="J35" s="246"/>
+      <c r="K35" s="246"/>
+      <c r="L35" s="247"/>
+      <c r="M35" s="227"/>
+      <c r="N35" s="228"/>
+      <c r="O35" s="229"/>
+      <c r="P35" s="168"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
@@ -6313,54 +6313,54 @@
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
-      <c r="M37" s="177" t="s">
+      <c r="M37" s="159" t="s">
         <v>124</v>
       </c>
-      <c r="N37" s="178"/>
-      <c r="O37" s="226"/>
+      <c r="N37" s="160"/>
+      <c r="O37" s="161"/>
       <c r="P37" s="57"/>
     </row>
     <row r="38" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="173" t="s">
+      <c r="B38" s="230" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="174"/>
-      <c r="D38" s="174"/>
-      <c r="E38" s="174"/>
-      <c r="F38" s="174"/>
-      <c r="G38" s="174"/>
-      <c r="H38" s="174"/>
-      <c r="I38" s="174"/>
-      <c r="J38" s="174"/>
-      <c r="K38" s="174"/>
-      <c r="L38" s="174"/>
-      <c r="M38" s="177" t="s">
+      <c r="C38" s="231"/>
+      <c r="D38" s="231"/>
+      <c r="E38" s="231"/>
+      <c r="F38" s="231"/>
+      <c r="G38" s="231"/>
+      <c r="H38" s="231"/>
+      <c r="I38" s="231"/>
+      <c r="J38" s="231"/>
+      <c r="K38" s="231"/>
+      <c r="L38" s="231"/>
+      <c r="M38" s="159" t="s">
         <v>123</v>
       </c>
-      <c r="N38" s="178"/>
-      <c r="O38" s="178"/>
-      <c r="P38" s="227">
+      <c r="N38" s="160"/>
+      <c r="O38" s="160"/>
+      <c r="P38" s="162">
         <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="175"/>
-      <c r="C39" s="176"/>
-      <c r="D39" s="176"/>
-      <c r="E39" s="176"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
-      <c r="H39" s="176"/>
-      <c r="I39" s="176"/>
-      <c r="J39" s="176"/>
-      <c r="K39" s="176"/>
-      <c r="L39" s="176"/>
-      <c r="M39" s="179"/>
-      <c r="N39" s="180"/>
-      <c r="O39" s="180"/>
-      <c r="P39" s="227"/>
+      <c r="B39" s="232"/>
+      <c r="C39" s="233"/>
+      <c r="D39" s="233"/>
+      <c r="E39" s="233"/>
+      <c r="F39" s="233"/>
+      <c r="G39" s="233"/>
+      <c r="H39" s="233"/>
+      <c r="I39" s="233"/>
+      <c r="J39" s="233"/>
+      <c r="K39" s="233"/>
+      <c r="L39" s="233"/>
+      <c r="M39" s="234"/>
+      <c r="N39" s="235"/>
+      <c r="O39" s="235"/>
+      <c r="P39" s="162"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
@@ -6382,219 +6382,219 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="118"/>
-      <c r="C41" s="118"/>
-      <c r="D41" s="118"/>
-      <c r="E41" s="118"/>
-      <c r="F41" s="118"/>
-      <c r="G41" s="118"/>
-      <c r="H41" s="118"/>
-      <c r="I41" s="118"/>
-      <c r="J41" s="118"/>
-      <c r="K41" s="118"/>
-      <c r="L41" s="118"/>
-      <c r="M41" s="118"/>
-      <c r="N41" s="118"/>
-      <c r="O41" s="118"/>
-      <c r="P41" s="118"/>
+      <c r="B41" s="117"/>
+      <c r="C41" s="117"/>
+      <c r="D41" s="117"/>
+      <c r="E41" s="117"/>
+      <c r="F41" s="117"/>
+      <c r="G41" s="117"/>
+      <c r="H41" s="117"/>
+      <c r="I41" s="117"/>
+      <c r="J41" s="117"/>
+      <c r="K41" s="117"/>
+      <c r="L41" s="117"/>
+      <c r="M41" s="117"/>
+      <c r="N41" s="117"/>
+      <c r="O41" s="117"/>
+      <c r="P41" s="117"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="118"/>
-      <c r="C42" s="118"/>
-      <c r="D42" s="118"/>
-      <c r="E42" s="118"/>
-      <c r="F42" s="118"/>
-      <c r="G42" s="118"/>
-      <c r="H42" s="118"/>
-      <c r="I42" s="118"/>
-      <c r="J42" s="118"/>
-      <c r="K42" s="118"/>
-      <c r="L42" s="118"/>
-      <c r="M42" s="118"/>
-      <c r="N42" s="118"/>
-      <c r="O42" s="118"/>
-      <c r="P42" s="118"/>
+      <c r="B42" s="117"/>
+      <c r="C42" s="117"/>
+      <c r="D42" s="117"/>
+      <c r="E42" s="117"/>
+      <c r="F42" s="117"/>
+      <c r="G42" s="117"/>
+      <c r="H42" s="117"/>
+      <c r="I42" s="117"/>
+      <c r="J42" s="117"/>
+      <c r="K42" s="117"/>
+      <c r="L42" s="117"/>
+      <c r="M42" s="117"/>
+      <c r="N42" s="117"/>
+      <c r="O42" s="117"/>
+      <c r="P42" s="117"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="118"/>
-      <c r="C43" s="118"/>
-      <c r="D43" s="118"/>
-      <c r="E43" s="118"/>
-      <c r="F43" s="118"/>
-      <c r="G43" s="118"/>
-      <c r="H43" s="118"/>
-      <c r="I43" s="118"/>
-      <c r="J43" s="118"/>
-      <c r="K43" s="118"/>
-      <c r="L43" s="118"/>
-      <c r="M43" s="118"/>
-      <c r="N43" s="118"/>
-      <c r="O43" s="118"/>
-      <c r="P43" s="118"/>
+      <c r="B43" s="117"/>
+      <c r="C43" s="117"/>
+      <c r="D43" s="117"/>
+      <c r="E43" s="117"/>
+      <c r="F43" s="117"/>
+      <c r="G43" s="117"/>
+      <c r="H43" s="117"/>
+      <c r="I43" s="117"/>
+      <c r="J43" s="117"/>
+      <c r="K43" s="117"/>
+      <c r="L43" s="117"/>
+      <c r="M43" s="117"/>
+      <c r="N43" s="117"/>
+      <c r="O43" s="117"/>
+      <c r="P43" s="117"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="118"/>
-      <c r="C44" s="118"/>
-      <c r="D44" s="118"/>
-      <c r="E44" s="118"/>
-      <c r="F44" s="118"/>
-      <c r="G44" s="118"/>
-      <c r="H44" s="118"/>
-      <c r="I44" s="118"/>
-      <c r="J44" s="118"/>
-      <c r="K44" s="118"/>
-      <c r="L44" s="118"/>
-      <c r="M44" s="118"/>
-      <c r="N44" s="118"/>
-      <c r="O44" s="118"/>
-      <c r="P44" s="118"/>
+      <c r="B44" s="117"/>
+      <c r="C44" s="117"/>
+      <c r="D44" s="117"/>
+      <c r="E44" s="117"/>
+      <c r="F44" s="117"/>
+      <c r="G44" s="117"/>
+      <c r="H44" s="117"/>
+      <c r="I44" s="117"/>
+      <c r="J44" s="117"/>
+      <c r="K44" s="117"/>
+      <c r="L44" s="117"/>
+      <c r="M44" s="117"/>
+      <c r="N44" s="117"/>
+      <c r="O44" s="117"/>
+      <c r="P44" s="117"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="118"/>
-      <c r="C45" s="118"/>
-      <c r="D45" s="118"/>
-      <c r="E45" s="118"/>
-      <c r="F45" s="118"/>
-      <c r="G45" s="118"/>
-      <c r="H45" s="118"/>
-      <c r="I45" s="118"/>
-      <c r="J45" s="118"/>
-      <c r="K45" s="118"/>
-      <c r="L45" s="118"/>
-      <c r="M45" s="118"/>
-      <c r="N45" s="118"/>
-      <c r="O45" s="118"/>
-      <c r="P45" s="118"/>
+      <c r="B45" s="117"/>
+      <c r="C45" s="117"/>
+      <c r="D45" s="117"/>
+      <c r="E45" s="117"/>
+      <c r="F45" s="117"/>
+      <c r="G45" s="117"/>
+      <c r="H45" s="117"/>
+      <c r="I45" s="117"/>
+      <c r="J45" s="117"/>
+      <c r="K45" s="117"/>
+      <c r="L45" s="117"/>
+      <c r="M45" s="117"/>
+      <c r="N45" s="117"/>
+      <c r="O45" s="117"/>
+      <c r="P45" s="117"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="118"/>
-      <c r="C46" s="118"/>
-      <c r="D46" s="118"/>
-      <c r="E46" s="118"/>
-      <c r="F46" s="118"/>
-      <c r="G46" s="118"/>
-      <c r="H46" s="118"/>
-      <c r="I46" s="118"/>
-      <c r="J46" s="118"/>
-      <c r="K46" s="118"/>
-      <c r="L46" s="118"/>
-      <c r="M46" s="118"/>
-      <c r="N46" s="118"/>
-      <c r="O46" s="118"/>
-      <c r="P46" s="118"/>
+      <c r="B46" s="117"/>
+      <c r="C46" s="117"/>
+      <c r="D46" s="117"/>
+      <c r="E46" s="117"/>
+      <c r="F46" s="117"/>
+      <c r="G46" s="117"/>
+      <c r="H46" s="117"/>
+      <c r="I46" s="117"/>
+      <c r="J46" s="117"/>
+      <c r="K46" s="117"/>
+      <c r="L46" s="117"/>
+      <c r="M46" s="117"/>
+      <c r="N46" s="117"/>
+      <c r="O46" s="117"/>
+      <c r="P46" s="117"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="118"/>
-      <c r="C47" s="118"/>
-      <c r="D47" s="118"/>
-      <c r="E47" s="118"/>
-      <c r="F47" s="118"/>
-      <c r="G47" s="118"/>
-      <c r="H47" s="118"/>
-      <c r="I47" s="118"/>
-      <c r="J47" s="118"/>
-      <c r="K47" s="118"/>
-      <c r="L47" s="118"/>
-      <c r="M47" s="118"/>
-      <c r="N47" s="118"/>
-      <c r="O47" s="118"/>
-      <c r="P47" s="118"/>
+      <c r="B47" s="117"/>
+      <c r="C47" s="117"/>
+      <c r="D47" s="117"/>
+      <c r="E47" s="117"/>
+      <c r="F47" s="117"/>
+      <c r="G47" s="117"/>
+      <c r="H47" s="117"/>
+      <c r="I47" s="117"/>
+      <c r="J47" s="117"/>
+      <c r="K47" s="117"/>
+      <c r="L47" s="117"/>
+      <c r="M47" s="117"/>
+      <c r="N47" s="117"/>
+      <c r="O47" s="117"/>
+      <c r="P47" s="117"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="118"/>
-      <c r="C48" s="118"/>
-      <c r="D48" s="118"/>
-      <c r="E48" s="118"/>
-      <c r="F48" s="118"/>
-      <c r="G48" s="118"/>
-      <c r="H48" s="118"/>
-      <c r="I48" s="118"/>
-      <c r="J48" s="118"/>
-      <c r="K48" s="118"/>
-      <c r="L48" s="118"/>
-      <c r="M48" s="118"/>
-      <c r="N48" s="118"/>
-      <c r="O48" s="118"/>
-      <c r="P48" s="118"/>
+      <c r="B48" s="117"/>
+      <c r="C48" s="117"/>
+      <c r="D48" s="117"/>
+      <c r="E48" s="117"/>
+      <c r="F48" s="117"/>
+      <c r="G48" s="117"/>
+      <c r="H48" s="117"/>
+      <c r="I48" s="117"/>
+      <c r="J48" s="117"/>
+      <c r="K48" s="117"/>
+      <c r="L48" s="117"/>
+      <c r="M48" s="117"/>
+      <c r="N48" s="117"/>
+      <c r="O48" s="117"/>
+      <c r="P48" s="117"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="118"/>
-      <c r="C49" s="118"/>
-      <c r="D49" s="118"/>
-      <c r="E49" s="118"/>
-      <c r="F49" s="118"/>
-      <c r="G49" s="118"/>
-      <c r="H49" s="118"/>
-      <c r="I49" s="118"/>
-      <c r="J49" s="118"/>
-      <c r="K49" s="118"/>
-      <c r="L49" s="118"/>
-      <c r="M49" s="118"/>
-      <c r="N49" s="118"/>
-      <c r="O49" s="118"/>
-      <c r="P49" s="118"/>
+      <c r="B49" s="117"/>
+      <c r="C49" s="117"/>
+      <c r="D49" s="117"/>
+      <c r="E49" s="117"/>
+      <c r="F49" s="117"/>
+      <c r="G49" s="117"/>
+      <c r="H49" s="117"/>
+      <c r="I49" s="117"/>
+      <c r="J49" s="117"/>
+      <c r="K49" s="117"/>
+      <c r="L49" s="117"/>
+      <c r="M49" s="117"/>
+      <c r="N49" s="117"/>
+      <c r="O49" s="117"/>
+      <c r="P49" s="117"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="118"/>
-      <c r="C50" s="118"/>
-      <c r="D50" s="118"/>
-      <c r="E50" s="118"/>
-      <c r="F50" s="118"/>
-      <c r="G50" s="118"/>
-      <c r="H50" s="118"/>
-      <c r="I50" s="118"/>
-      <c r="J50" s="118"/>
-      <c r="K50" s="118"/>
-      <c r="L50" s="118"/>
-      <c r="M50" s="118"/>
-      <c r="N50" s="118"/>
-      <c r="O50" s="118"/>
-      <c r="P50" s="118"/>
+      <c r="B50" s="117"/>
+      <c r="C50" s="117"/>
+      <c r="D50" s="117"/>
+      <c r="E50" s="117"/>
+      <c r="F50" s="117"/>
+      <c r="G50" s="117"/>
+      <c r="H50" s="117"/>
+      <c r="I50" s="117"/>
+      <c r="J50" s="117"/>
+      <c r="K50" s="117"/>
+      <c r="L50" s="117"/>
+      <c r="M50" s="117"/>
+      <c r="N50" s="117"/>
+      <c r="O50" s="117"/>
+      <c r="P50" s="117"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="118"/>
-      <c r="C51" s="118"/>
-      <c r="D51" s="118"/>
-      <c r="E51" s="118"/>
-      <c r="F51" s="118"/>
-      <c r="G51" s="118"/>
-      <c r="H51" s="118"/>
-      <c r="I51" s="118"/>
-      <c r="J51" s="118"/>
-      <c r="K51" s="118"/>
-      <c r="L51" s="118"/>
-      <c r="M51" s="118"/>
-      <c r="N51" s="118"/>
-      <c r="O51" s="118"/>
-      <c r="P51" s="118"/>
+      <c r="B51" s="117"/>
+      <c r="C51" s="117"/>
+      <c r="D51" s="117"/>
+      <c r="E51" s="117"/>
+      <c r="F51" s="117"/>
+      <c r="G51" s="117"/>
+      <c r="H51" s="117"/>
+      <c r="I51" s="117"/>
+      <c r="J51" s="117"/>
+      <c r="K51" s="117"/>
+      <c r="L51" s="117"/>
+      <c r="M51" s="117"/>
+      <c r="N51" s="117"/>
+      <c r="O51" s="117"/>
+      <c r="P51" s="117"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="118"/>
-      <c r="C52" s="118"/>
-      <c r="D52" s="118"/>
-      <c r="E52" s="118"/>
-      <c r="F52" s="118"/>
-      <c r="G52" s="118"/>
-      <c r="H52" s="118"/>
-      <c r="I52" s="118"/>
-      <c r="J52" s="118"/>
-      <c r="K52" s="118"/>
-      <c r="L52" s="118"/>
-      <c r="M52" s="118"/>
-      <c r="N52" s="118"/>
-      <c r="O52" s="118"/>
-      <c r="P52" s="118"/>
+      <c r="B52" s="117"/>
+      <c r="C52" s="117"/>
+      <c r="D52" s="117"/>
+      <c r="E52" s="117"/>
+      <c r="F52" s="117"/>
+      <c r="G52" s="117"/>
+      <c r="H52" s="117"/>
+      <c r="I52" s="117"/>
+      <c r="J52" s="117"/>
+      <c r="K52" s="117"/>
+      <c r="L52" s="117"/>
+      <c r="M52" s="117"/>
+      <c r="N52" s="117"/>
+      <c r="O52" s="117"/>
+      <c r="P52" s="117"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
@@ -6701,6 +6701,58 @@
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="B41:P52"/>
+    <mergeCell ref="M33:O35"/>
+    <mergeCell ref="P26:P29"/>
+    <mergeCell ref="B38:L39"/>
+    <mergeCell ref="M38:O39"/>
+    <mergeCell ref="D26:L26"/>
+    <mergeCell ref="D27:L27"/>
+    <mergeCell ref="D28:L28"/>
+    <mergeCell ref="D33:L33"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D34:L34"/>
+    <mergeCell ref="D35:L35"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B23:L24"/>
+    <mergeCell ref="M31:O32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:L32"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:L25"/>
+    <mergeCell ref="M24:O25"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="D15:L15"/>
+    <mergeCell ref="D16:L16"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="D14:L14"/>
     <mergeCell ref="M37:O37"/>
     <mergeCell ref="P38:P39"/>
     <mergeCell ref="P14:P20"/>
@@ -6717,58 +6769,6 @@
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="D15:L15"/>
-    <mergeCell ref="D16:L16"/>
-    <mergeCell ref="D17:L17"/>
-    <mergeCell ref="D14:L14"/>
-    <mergeCell ref="M24:O25"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="D18:L18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B23:L24"/>
-    <mergeCell ref="M31:O32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:L32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:L25"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="B41:P52"/>
-    <mergeCell ref="M33:O35"/>
-    <mergeCell ref="P26:P29"/>
-    <mergeCell ref="B38:L39"/>
-    <mergeCell ref="M38:O39"/>
-    <mergeCell ref="D26:L26"/>
-    <mergeCell ref="D27:L27"/>
-    <mergeCell ref="D28:L28"/>
-    <mergeCell ref="D33:L33"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D34:L34"/>
-    <mergeCell ref="D35:L35"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="B26:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="40" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
@@ -6780,8 +6780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6799,19 +6799,19 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="263" t="s">
+      <c r="B2" s="256" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="264"/>
-      <c r="D2" s="264"/>
-      <c r="E2" s="264"/>
-      <c r="F2" s="264"/>
-      <c r="G2" s="264"/>
-      <c r="H2" s="264"/>
-      <c r="I2" s="265"/>
+      <c r="C2" s="257"/>
+      <c r="D2" s="257"/>
+      <c r="E2" s="257"/>
+      <c r="F2" s="257"/>
+      <c r="G2" s="257"/>
+      <c r="H2" s="257"/>
+      <c r="I2" s="258"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="268" t="s">
+      <c r="B3" s="261" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="49" t="s">
@@ -6838,7 +6838,7 @@
       <c r="J3" s="39"/>
     </row>
     <row r="4" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="267"/>
+      <c r="B4" s="260"/>
       <c r="C4" s="30">
         <v>0</v>
       </c>
@@ -6867,7 +6867,7 @@
       <c r="K4" s="38"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="268" t="s">
+      <c r="B5" s="261" t="s">
         <v>49</v>
       </c>
       <c r="C5" s="47" t="s">
@@ -6894,7 +6894,7 @@
       <c r="J5" s="39"/>
     </row>
     <row r="6" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="269"/>
+      <c r="B6" s="262"/>
       <c r="C6" s="33">
         <v>0</v>
       </c>
@@ -6923,7 +6923,7 @@
       <c r="K6" s="40"/>
     </row>
     <row r="7" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="266" t="s">
+      <c r="B7" s="259" t="s">
         <v>48</v>
       </c>
       <c r="C7" s="45" t="s">
@@ -6950,7 +6950,7 @@
       <c r="J7" s="39"/>
     </row>
     <row r="8" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="267"/>
+      <c r="B8" s="260"/>
       <c r="C8" s="30">
         <v>0</v>
       </c>
@@ -6979,7 +6979,7 @@
       <c r="K8" s="38"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="268" t="s">
+      <c r="B9" s="261" t="s">
         <v>50</v>
       </c>
       <c r="C9" s="49">
@@ -7006,7 +7006,7 @@
       <c r="J9" s="39"/>
     </row>
     <row r="10" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="269"/>
+      <c r="B10" s="262"/>
       <c r="C10" s="35">
         <v>0</v>
       </c>
@@ -7035,7 +7035,7 @@
       <c r="K10" s="38"/>
     </row>
     <row r="11" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="266" t="s">
+      <c r="B11" s="259" t="s">
         <v>51</v>
       </c>
       <c r="C11" s="44" t="s">
@@ -7062,7 +7062,7 @@
       <c r="J11" s="42"/>
     </row>
     <row r="12" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="267"/>
+      <c r="B12" s="260"/>
       <c r="C12" s="30">
         <v>0</v>
       </c>
@@ -7091,7 +7091,7 @@
       <c r="K12" s="38"/>
     </row>
     <row r="13" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="268" t="s">
+      <c r="B13" s="261" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="47" t="s">
@@ -7118,7 +7118,7 @@
       <c r="J13" s="41"/>
     </row>
     <row r="14" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="269"/>
+      <c r="B14" s="262"/>
       <c r="C14" s="28">
         <v>1</v>
       </c>
@@ -7147,7 +7147,7 @@
       <c r="K14" s="40"/>
     </row>
     <row r="15" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="266" t="s">
+      <c r="B15" s="259" t="s">
         <v>54</v>
       </c>
       <c r="C15" s="44" t="s">
@@ -7174,7 +7174,7 @@
       <c r="J15" s="41"/>
     </row>
     <row r="16" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="267"/>
+      <c r="B16" s="260"/>
       <c r="C16" s="30">
         <v>0</v>
       </c>
@@ -7213,16 +7213,16 @@
     </row>
     <row r="19" spans="2:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="255" t="s">
+      <c r="B20" s="248" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="256"/>
-      <c r="D20" s="256"/>
-      <c r="E20" s="256"/>
-      <c r="F20" s="256"/>
-      <c r="G20" s="256"/>
-      <c r="H20" s="256"/>
-      <c r="I20" s="257"/>
+      <c r="C20" s="249"/>
+      <c r="D20" s="249"/>
+      <c r="E20" s="249"/>
+      <c r="F20" s="249"/>
+      <c r="G20" s="249"/>
+      <c r="H20" s="249"/>
+      <c r="I20" s="250"/>
     </row>
     <row r="21" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="77" t="s">
@@ -7440,7 +7440,7 @@
         <f>C35*D35</f>
         <v>0</v>
       </c>
-      <c r="F35" s="252">
+      <c r="F35" s="267">
         <f>SUM(E48:E50)+SUM(E43:E46)+SUM(E35:E41)</f>
         <v>118505</v>
       </c>
@@ -7460,7 +7460,7 @@
         <f t="shared" ref="E36:E41" si="0">C36*D36</f>
         <v>0</v>
       </c>
-      <c r="F36" s="253"/>
+      <c r="F36" s="268"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="81" t="s">
@@ -7477,7 +7477,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F37" s="253"/>
+      <c r="F37" s="268"/>
       <c r="G37" s="26"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
@@ -7495,7 +7495,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F38" s="253"/>
+      <c r="F38" s="268"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="81" t="s">
@@ -7512,7 +7512,7 @@
         <f t="shared" si="0"/>
         <v>1875</v>
       </c>
-      <c r="F39" s="253"/>
+      <c r="F39" s="268"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="81" t="s">
@@ -7529,7 +7529,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F40" s="253"/>
+      <c r="F40" s="268"/>
     </row>
     <row r="41" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="95" t="s">
@@ -7546,7 +7546,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F41" s="253"/>
+      <c r="F41" s="268"/>
     </row>
     <row r="42" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="97" t="s">
@@ -7561,7 +7561,7 @@
       <c r="E42" s="101" t="s">
         <v>147</v>
       </c>
-      <c r="F42" s="253"/>
+      <c r="F42" s="268"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="81" t="s">
@@ -7578,7 +7578,7 @@
         <f>C43*D43</f>
         <v>0</v>
       </c>
-      <c r="F43" s="253"/>
+      <c r="F43" s="268"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="81" t="s">
@@ -7595,7 +7595,7 @@
         <f>C44*D44</f>
         <v>105630</v>
       </c>
-      <c r="F44" s="253"/>
+      <c r="F44" s="268"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="81" t="s">
@@ -7612,7 +7612,7 @@
         <f>C45*D45</f>
         <v>0</v>
       </c>
-      <c r="F45" s="253"/>
+      <c r="F45" s="268"/>
     </row>
     <row r="46" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="81" t="s">
@@ -7629,7 +7629,7 @@
         <f>C46*D46</f>
         <v>0</v>
       </c>
-      <c r="F46" s="253"/>
+      <c r="F46" s="268"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="97" t="s">
@@ -7644,7 +7644,7 @@
       <c r="E47" s="101" t="s">
         <v>147</v>
       </c>
-      <c r="F47" s="253"/>
+      <c r="F47" s="268"/>
       <c r="G47" s="60"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
@@ -7663,7 +7663,7 @@
         <f>C48*D48</f>
         <v>10000</v>
       </c>
-      <c r="F48" s="253"/>
+      <c r="F48" s="268"/>
       <c r="G48" s="61"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
@@ -7682,7 +7682,7 @@
         <f>D49*C49</f>
         <v>1000</v>
       </c>
-      <c r="F49" s="253"/>
+      <c r="F49" s="268"/>
       <c r="G49" s="61"/>
     </row>
     <row r="50" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7701,7 +7701,7 @@
         <f>D50*C50</f>
         <v>0</v>
       </c>
-      <c r="F50" s="254"/>
+      <c r="F50" s="269"/>
       <c r="G50" s="61"/>
     </row>
     <row r="51" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7736,7 +7736,7 @@
         <f>C52*D52</f>
         <v>0</v>
       </c>
-      <c r="F52" s="252">
+      <c r="F52" s="267">
         <f>SUM(E52:E58)</f>
         <v>249550</v>
       </c>
@@ -7756,7 +7756,7 @@
         <f t="shared" ref="E53:E58" si="1">C53*D53</f>
         <v>0</v>
       </c>
-      <c r="F53" s="253"/>
+      <c r="F53" s="268"/>
       <c r="G53" s="85"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
@@ -7774,7 +7774,7 @@
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
-      <c r="F54" s="253"/>
+      <c r="F54" s="268"/>
       <c r="G54" s="85"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
@@ -7792,7 +7792,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F55" s="253"/>
+      <c r="F55" s="268"/>
       <c r="G55" s="85"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
@@ -7810,7 +7810,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F56" s="253"/>
+      <c r="F56" s="268"/>
       <c r="G56" s="85"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
@@ -7828,7 +7828,7 @@
         <f t="shared" si="1"/>
         <v>149550</v>
       </c>
-      <c r="F57" s="253"/>
+      <c r="F57" s="268"/>
       <c r="G57" s="85"/>
     </row>
     <row r="58" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7846,17 +7846,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F58" s="254"/>
+      <c r="F58" s="269"/>
       <c r="G58" s="85"/>
       <c r="H58" s="85"/>
     </row>
     <row r="59" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="258" t="s">
+      <c r="B59" s="251" t="s">
         <v>152</v>
       </c>
-      <c r="C59" s="259"/>
-      <c r="D59" s="259"/>
-      <c r="E59" s="259"/>
+      <c r="C59" s="252"/>
+      <c r="D59" s="252"/>
+      <c r="E59" s="252"/>
       <c r="F59" s="98">
         <f>F52/F35</f>
         <v>2.1058183199021139</v>
@@ -7864,57 +7864,57 @@
       <c r="G59" s="85"/>
     </row>
     <row r="60" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="260" t="s">
+      <c r="B60" s="253" t="s">
         <v>153</v>
       </c>
-      <c r="C60" s="261"/>
-      <c r="D60" s="261"/>
-      <c r="E60" s="262"/>
+      <c r="C60" s="254"/>
+      <c r="D60" s="254"/>
+      <c r="E60" s="255"/>
       <c r="F60" s="97">
         <f>IF(F59&lt;50%,C68,IF(AND(F59&gt;50%,F59&lt;75%),D68,IF(AND(F59&gt;75%,F59&lt;95%),E68,IF(F59=100%,F68,IF(AND(F59&gt;100%,F59&lt;105%),G68,IF(AND(F59&gt;105%,F59&lt;125%),H68,IF(F59&gt;125%,I68)))))))</f>
         <v>40</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C64" s="248" t="s">
+      <c r="C64" s="263" t="s">
         <v>125</v>
       </c>
-      <c r="D64" s="249"/>
-      <c r="E64" s="249"/>
-      <c r="F64" s="249"/>
-      <c r="G64" s="249"/>
-      <c r="H64" s="249"/>
-      <c r="I64" s="250"/>
+      <c r="D64" s="264"/>
+      <c r="E64" s="264"/>
+      <c r="F64" s="264"/>
+      <c r="G64" s="264"/>
+      <c r="H64" s="264"/>
+      <c r="I64" s="265"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="C65" s="251" t="s">
+      <c r="C65" s="266" t="s">
         <v>62</v>
       </c>
-      <c r="D65" s="251"/>
-      <c r="E65" s="251"/>
-      <c r="F65" s="251" t="s">
+      <c r="D65" s="266"/>
+      <c r="E65" s="266"/>
+      <c r="F65" s="266" t="s">
         <v>64</v>
       </c>
-      <c r="G65" s="251" t="s">
+      <c r="G65" s="266" t="s">
         <v>63</v>
       </c>
-      <c r="H65" s="251"/>
-      <c r="I65" s="251"/>
+      <c r="H65" s="266"/>
+      <c r="I65" s="266"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="C66" s="251"/>
-      <c r="D66" s="251"/>
-      <c r="E66" s="251"/>
-      <c r="F66" s="251"/>
-      <c r="G66" s="251"/>
-      <c r="H66" s="251"/>
-      <c r="I66" s="251"/>
+      <c r="C66" s="266"/>
+      <c r="D66" s="266"/>
+      <c r="E66" s="266"/>
+      <c r="F66" s="266"/>
+      <c r="G66" s="266"/>
+      <c r="H66" s="266"/>
+      <c r="I66" s="266"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C67" s="75" t="s">
@@ -7964,6 +7964,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C64:I64"/>
+    <mergeCell ref="G65:I66"/>
+    <mergeCell ref="F52:F58"/>
+    <mergeCell ref="F35:F50"/>
+    <mergeCell ref="C65:E66"/>
+    <mergeCell ref="F65:F66"/>
     <mergeCell ref="B20:I20"/>
     <mergeCell ref="B59:E59"/>
     <mergeCell ref="B60:E60"/>
@@ -7975,12 +7981,6 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C64:I64"/>
-    <mergeCell ref="G65:I66"/>
-    <mergeCell ref="F52:F58"/>
-    <mergeCell ref="F35:F50"/>
-    <mergeCell ref="C65:E66"/>
-    <mergeCell ref="F65:F66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
@@ -8007,45 +8007,45 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="248" t="s">
+      <c r="B3" s="263" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="249"/>
-      <c r="D3" s="249"/>
-      <c r="E3" s="249"/>
-      <c r="F3" s="249"/>
-      <c r="G3" s="249"/>
-      <c r="H3" s="250"/>
+      <c r="C3" s="264"/>
+      <c r="D3" s="264"/>
+      <c r="E3" s="264"/>
+      <c r="F3" s="264"/>
+      <c r="G3" s="264"/>
+      <c r="H3" s="265"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="B4" s="251" t="s">
+      <c r="B4" s="266" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="251"/>
-      <c r="D4" s="251"/>
-      <c r="E4" s="251" t="s">
+      <c r="C4" s="266"/>
+      <c r="D4" s="266"/>
+      <c r="E4" s="266" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="251" t="s">
+      <c r="F4" s="266" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="251"/>
-      <c r="H4" s="251"/>
+      <c r="G4" s="266"/>
+      <c r="H4" s="266"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="251"/>
-      <c r="C5" s="251"/>
-      <c r="D5" s="251"/>
-      <c r="E5" s="251"/>
-      <c r="F5" s="251"/>
-      <c r="G5" s="251"/>
-      <c r="H5" s="251"/>
+      <c r="B5" s="266"/>
+      <c r="C5" s="266"/>
+      <c r="D5" s="266"/>
+      <c r="E5" s="266"/>
+      <c r="F5" s="266"/>
+      <c r="G5" s="266"/>
+      <c r="H5" s="266"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="75" t="s">
@@ -8306,16 +8306,16 @@
     </row>
     <row r="25" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="255" t="s">
+      <c r="B26" s="248" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="256"/>
-      <c r="D26" s="256"/>
-      <c r="E26" s="256"/>
-      <c r="F26" s="256"/>
-      <c r="G26" s="256"/>
-      <c r="H26" s="256"/>
-      <c r="I26" s="257"/>
+      <c r="C26" s="249"/>
+      <c r="D26" s="249"/>
+      <c r="E26" s="249"/>
+      <c r="F26" s="249"/>
+      <c r="G26" s="249"/>
+      <c r="H26" s="249"/>
+      <c r="I26" s="250"/>
     </row>
     <row r="27" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="273" t="s">
